--- a/atomica/library/framework_template_advanced.xlsx
+++ b/atomica/library/framework_template_advanced.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56626EDB-8457-4295-AAB3-A50EBEF68FE9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E6538B-31F6-4AC1-8E40-37E48C1F2440}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/atomica/library/framework_template_advanced.xlsx
+++ b/atomica/library/framework_template_advanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E6538B-31F6-4AC1-8E40-37E48C1F2440}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BD2F20-485B-40A6-8AE2-5843BCDF8F7C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/atomica/library/framework_template_advanced.xlsx
+++ b/atomica/library/framework_template_advanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BD2F20-485B-40A6-8AE2-5843BCDF8F7C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21613C6D-5B51-4B97-A4F8-A7F47DE82AD9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2023,7 +2023,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{FCE4BAB8-A6E9-4C37-855F-51EEAFF610F3}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{A300C74D-F272-4D9A-8D8B-F358A29F1078}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">This column defines the timescale for transition parameters. A value can be set here if the number or probability associated with the parameter is not on an annual basis. Values should be entered in this column in units of years. For example, a parameter for a daily probability would have the timescale set to '=1/365'
+For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FCE4BAB8-A6E9-4C37-855F-51EEAFF610F3}">
       <text>
         <r>
           <rPr>
@@ -2065,7 +2080,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F7DF6DA5-307D-42BB-80B5-CEE9AB8ED752}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F7DF6DA5-307D-42BB-80B5-CEE9AB8ED752}">
       <text>
         <r>
           <rPr>
@@ -2107,7 +2122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{4C3AB2C0-9D0C-4C0E-9CF0-D571224FE5BD}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{4C3AB2C0-9D0C-4C0E-9CF0-D571224FE5BD}">
       <text>
         <r>
           <rPr>
@@ -2149,7 +2164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{98B9E77F-8634-4220-9AE2-2EB54A125949}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{98B9E77F-8634-4220-9AE2-2EB54A125949}">
       <text>
         <r>
           <rPr>
@@ -2191,7 +2206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{974FC231-C2BA-4000-88CD-AB6CE23C45D0}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{974FC231-C2BA-4000-88CD-AB6CE23C45D0}">
       <text>
         <r>
           <rPr>
@@ -2243,7 +2258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{2081E04D-F569-4CB4-A2D6-429C64002467}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{2081E04D-F569-4CB4-A2D6-429C64002467}">
       <text>
         <r>
           <rPr>
@@ -2295,7 +2310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{9AB3D83C-D0BC-4583-B5B1-006FE7C2562F}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{9AB3D83C-D0BC-4583-B5B1-006FE7C2562F}">
       <text>
         <r>
           <rPr>
@@ -2348,7 +2363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{F4694702-1A69-4233-A84B-A75E88284228}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{F4694702-1A69-4233-A84B-A75E88284228}">
       <text>
         <r>
           <rPr>
@@ -2420,7 +2435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{334442D1-1566-452B-87A7-78190747C88B}">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{334442D1-1566-452B-87A7-78190747C88B}">
       <text>
         <r>
           <rPr>
@@ -2713,7 +2728,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>Datasheet Code Name</t>
   </si>
@@ -2879,12 +2894,15 @@
   <si>
     <t>Guidance</t>
   </si>
+  <si>
+    <t>Timescale</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2956,6 +2974,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -7798,10 +7822,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7809,15 +7833,16 @@
     <col min="1" max="1" width="10.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7828,34 +7853,37 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
@@ -7866,10 +7894,11 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -7883,13 +7912,13 @@
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J1048576">
+  <conditionalFormatting sqref="K2:K1048576">
     <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(K2&lt;&gt;"",NOT(J2&lt;&gt;""))</formula>
+      <formula>AND(L2&lt;&gt;"",NOT(K2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{7CB7BECB-8CCA-402C-8209-B57AEC65D6EC}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{7CB7BECB-8CCA-402C-8209-B57AEC65D6EC}">
       <formula1>"n,y"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Code names must be unique" error="Parameter code names must be unique" sqref="A1:A1048576" xr:uid="{E6E68E87-C2E4-4D80-BD6F-D69CE5F2A8E2}">
@@ -7898,6 +7927,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{8DEB734B-0D92-46DE-82B5-50C9B463F1CD}">
       <formula1>"probability, number, proportion, duration"</formula1>
     </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{7B357739-ECEB-45D0-9FF6-C94815526279}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{3C5E5528-F961-4CFC-83ED-CB90A50DF965}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7906,7 +7939,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{BE3DBFB1-F6C9-4726-B787-A3DD602656FE}">
-            <xm:f>AND(J2&lt;&gt;"",ISERROR(MATCH(J2,'Databook Pages'!$A:$A,0)))</xm:f>
+            <xm:f>AND(K2&lt;&gt;"",ISERROR(MATCH(K2,'Databook Pages'!$A:$A,0)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7915,7 +7948,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J2:J1048576</xm:sqref>
+          <xm:sqref>K2:K1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7925,7 +7958,7 @@
           <x14:formula1>
             <xm:f>'Databook Pages'!$A$2:$A$9999</xm:f>
           </x14:formula1>
-          <xm:sqref>J1:J1048576</xm:sqref>
+          <xm:sqref>K1:K1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/atomica/library/framework_template_advanced.xlsx
+++ b/atomica/library/framework_template_advanced.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21613C6D-5B51-4B97-A4F8-A7F47DE82AD9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA5843A-C02C-44AC-B538-F26C582664B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
     <sheet name="Databook Pages" sheetId="1" r:id="rId2"/>
-    <sheet name="Compartments" sheetId="2" r:id="rId3"/>
-    <sheet name="Transitions" sheetId="3" r:id="rId4"/>
-    <sheet name="Characteristics" sheetId="4" r:id="rId5"/>
-    <sheet name="Parameters" sheetId="6" r:id="rId6"/>
-    <sheet name="Interactions" sheetId="5" r:id="rId7"/>
-    <sheet name="Cascades" sheetId="7" r:id="rId8"/>
-    <sheet name="Plots" sheetId="8" r:id="rId9"/>
+    <sheet name="Population types" sheetId="10" r:id="rId3"/>
+    <sheet name="Compartments" sheetId="2" r:id="rId4"/>
+    <sheet name="Transitions" sheetId="3" r:id="rId5"/>
+    <sheet name="Characteristics" sheetId="4" r:id="rId6"/>
+    <sheet name="Parameters" sheetId="6" r:id="rId7"/>
+    <sheet name="Interactions" sheetId="5" r:id="rId8"/>
+    <sheet name="Cascades" sheetId="7" r:id="rId9"/>
+    <sheet name="Plots" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -82,1053 +83,23 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
     <author>Romesh</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8F11EEB6-017C-4E97-8DFB-6E8BA3F55C2C}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B66A40B7-D1A4-4FD5-B2E5-BE4A3E984FAF}">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">The code name should be in lower case without spaces.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">For </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The code name for the population type. This should be lowercase with no spaces</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{18044106-CF0A-4F46-AE9F-654B913C6CA3}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">The display name appears on plots and other outputs.  It should be in sentence case. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{50EA1244-E946-434D-A412-9398789E7050}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column is for tagging a compartment as an abstract 'source' state,
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">from which entities can flow into the rest of a network.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compartment inflows are prohibited, compartment size is meaningless
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">and, accordingly, compartment outflows cannot be specified in relative
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">format.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This tag should only be enabled for sources of network flows that are
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">not intrinsically bound by size, e.g. births or immigration.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Flows from sources can still be dependent on other variables in the
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">cascade, e.g. if births are controlled by parental population size,
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">while migrations between populations are considered transfers,
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">i.e. between sets of compartments, and do not involve source nodes.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Note: This tag is only enabled for a compartment by marking the
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">corresponding cell 'y'.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Anything else, including keeping the cell blank, disables the tag.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4B1D614A-6995-4BC4-9139-ADC85A780737}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column is for tagging a compartment as an abstract 'sink' state,
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">into which entities can flow from the rest of a network.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compartment outflows are prohibited and compartment size denotes
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">the accumulation of all inflowing entities from the start of
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">simulation, the utility of which the user must judge on their own.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This tag should only be enabled for sinks of network flows that mark
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">the exit of entities from further involvement in a cascade, e.g. deaths
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">and emigration.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Migrations between populations are considered transfers, i.e. between
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">sets of compartments, and do not involve sink nodes.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Note: This tag is only enabled for a compartment by marking the
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">corresponding cell 'y'.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Anything else, including keeping the cell blank, disables the tag.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{DB56E746-A899-4F16-8FAE-6600FA84B075}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column is for tagging a compartment as an abstract 'junction'
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">state, commonly used to control the aggregation and disaggregation of
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">network flows.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">These special nodes are designed to empty out their contents
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">immediately after collecting inflow, meaning that they will never
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">accumulate any entities at any point in time.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Accordingly, compartment size is always zero and there must always be
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">at least one compartment outflow, each of which must be specified in
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">weighted format.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Inflowing entities will be flushed out to connected states in
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">proportion with the weights of the outflowing transitions.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Models using junctions must be well designed, as a recursion limit will
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">break networks involving endless cycles during simulation runtime.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Note: This tag is only enabled for a compartment by marking the
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">corresponding cell 'y'.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Anything else, including keeping the cell blank, disables the tag.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B4B78201-E703-45F2-B8E3-C4BE043769F5}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column determines how important user-provided values for this
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">compartment are to setting up the initial state of a model.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">In general, the column value should be '1' if model construction
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">directly depends on what the user provides for compartment size.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">It should be '0' if supplied values are only for calibration or
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">note-keeping purposes.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">In this latter case, the linear-algebra method of setting up
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">compartment sizes may complain about an 'under-determined' system
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">during a model run.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">To avoid this, every zero-weighted compartment should be matched
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">by a 'characteristic' defined in a later spreadsheet that includes
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">this compartment and is not weighted zero for setup weight.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Note: Default value, i.e. a blank cell, is '1'.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Framework file parsing should also warn the user about a compartment
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">with nonzero setup weight that is suppressed in the databook, i.e.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">has a databook order of '-1'.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3F46A7DA-FE24-4E1C-9D15-BD3B9B2F2AA3}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column marks whether compartment size data can be rescaled
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">during model calibration processes. To enable calibration, enter a label in this column. If no value is entered, the item will not appear for calibration. If this column is not present, it will be automatically populated if the compartment appears on a databook page
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{69690E77-E19A-4C62-A1A8-7A79BC1C6D8C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column optionally marks whether a data-input section should
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">appear for this compartment in a custom databook sheet, if allowed
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">to appear at all according to 'databook order'.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Each value should be a code name for a desired page defined in
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">the 'custom databook pages' worksheet page.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">If a cell is left empty, the enabled data-input section should appear
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>in a default databook page dedicated to state variables.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{4DCCC305-48A8-4F07-8F0E-014ED2BF36F9}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column currently denotes whether a databook should request
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">values from the user for the historical size of this compartment.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">A value of '-1' suppresses it from appearing in the databook.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{DC11A7F4-D37B-4E6C-A328-CF93337111F1}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{135DCF85-E328-4A8D-807B-4D98AB125498}">
       <text>
         <r>
           <rPr>
@@ -1137,7 +108,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Text entered here will appear as a comment in the title row of data entry tables in the databook</t>
+          <t xml:space="preserve">The display name appears on plots and other outputs.  It should be in sentence case. </t>
         </r>
       </text>
     </comment>
@@ -1148,39 +119,1092 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author/>
     <author>Romesh</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{30BE7B3B-8600-4B7D-BACD-39889A358194}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8F11EEB6-017C-4E97-8DFB-6E8BA3F55C2C}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">The transition matrix specifies which parameters govern transitions between compartments. Entries in this matrix should correspond to parameter Code Names (cells will be red if the parameter name cannot be found on the Parameters sheet).
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The code name should be in lower case without spaces.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">For </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{18044106-CF0A-4F46-AE9F-654B913C6CA3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The display name appears on plots and other outputs.  It should be in sentence case. </t>
+        </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">For further instructions on how to fill this out, please see cascade.tools/ug-frw-transitions
-</t>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{50EA1244-E946-434D-A412-9398789E7050}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column is for tagging a compartment as an abstract 'source' state,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">from which entities can flow into the rest of a network.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compartment inflows are prohibited, compartment size is meaningless
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">and, accordingly, compartment outflows cannot be specified in relative
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">format.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This tag should only be enabled for sources of network flows that are
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">not intrinsically bound by size, e.g. births or immigration.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Flows from sources can still be dependent on other variables in the
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">cascade, e.g. if births are controlled by parental population size,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">while migrations between populations are considered transfers,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">i.e. between sets of compartments, and do not involve source nodes.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note: This tag is only enabled for a compartment by marking the
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">corresponding cell 'y'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Anything else, including keeping the cell blank, disables the tag.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4B1D614A-6995-4BC4-9139-ADC85A780737}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column is for tagging a compartment as an abstract 'sink' state,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">into which entities can flow from the rest of a network.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compartment outflows are prohibited and compartment size denotes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the accumulation of all inflowing entities from the start of
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">simulation, the utility of which the user must judge on their own.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This tag should only be enabled for sinks of network flows that mark
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the exit of entities from further involvement in a cascade, e.g. deaths
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">and emigration.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Migrations between populations are considered transfers, i.e. between
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">sets of compartments, and do not involve sink nodes.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note: This tag is only enabled for a compartment by marking the
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">corresponding cell 'y'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Anything else, including keeping the cell blank, disables the tag.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{DB56E746-A899-4F16-8FAE-6600FA84B075}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column is for tagging a compartment as an abstract 'junction'
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">state, commonly used to control the aggregation and disaggregation of
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">network flows.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">These special nodes are designed to empty out their contents
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">immediately after collecting inflow, meaning that they will never
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">accumulate any entities at any point in time.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Accordingly, compartment size is always zero and there must always be
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">at least one compartment outflow, each of which must be specified in
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">weighted format.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Inflowing entities will be flushed out to connected states in
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">proportion with the weights of the outflowing transitions.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Models using junctions must be well designed, as a recursion limit will
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">break networks involving endless cycles during simulation runtime.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note: This tag is only enabled for a compartment by marking the
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">corresponding cell 'y'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Anything else, including keeping the cell blank, disables the tag.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B4B78201-E703-45F2-B8E3-C4BE043769F5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column determines how important user-provided values for this
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">compartment are to setting up the initial state of a model.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In general, the column value should be '1' if model construction
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">directly depends on what the user provides for compartment size.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">It should be '0' if supplied values are only for calibration or
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">note-keeping purposes.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In this latter case, the linear-algebra method of setting up
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">compartment sizes may complain about an 'under-determined' system
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">during a model run.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">To avoid this, every zero-weighted compartment should be matched
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">by a 'characteristic' defined in a later spreadsheet that includes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">this compartment and is not weighted zero for setup weight.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note: Default value, i.e. a blank cell, is '1'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Framework file parsing should also warn the user about a compartment
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">with nonzero setup weight that is suppressed in the databook, i.e.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">has a databook order of '-1'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3F46A7DA-FE24-4E1C-9D15-BD3B9B2F2AA3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column marks whether compartment size data can be rescaled
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">during model calibration processes. To enable calibration, enter a label in this column. If no value is entered, the item will not appear for calibration. If this column is not present, it will be automatically populated if the compartment appears on a databook page
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{69690E77-E19A-4C62-A1A8-7A79BC1C6D8C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column optionally marks whether a data-input section should
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">appear for this compartment in a custom databook sheet, if allowed
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">to appear at all according to 'databook order'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Each value should be a code name for a desired page defined in
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the 'custom databook pages' worksheet page.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If a cell is left empty, the enabled data-input section should appear
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>in a default databook page dedicated to state variables.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{4DCCC305-48A8-4F07-8F0E-014ED2BF36F9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column currently denotes whether a databook should request
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">values from the user for the historical size of this compartment.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A value of '-1' suppresses it from appearing in the databook.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{DC11A7F4-D37B-4E6C-A328-CF93337111F1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Text entered here will appear as a comment in the title row of data entry tables in the databook</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{2251638F-94C3-4F08-AC30-DD8D855E93D0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assign quantity to a population type. This column must match a population type listed on the 'Population types' sheet. If left empty, the first population type listed will be used</t>
         </r>
       </text>
     </comment>
@@ -1191,11 +1215,10 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
     <author>Romesh</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A81A74DD-AC0E-4B65-846B-CB2954186FEC}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{30BE7B3B-8600-4B7D-BACD-39889A358194}">
       <text>
         <r>
           <rPr>
@@ -1204,17 +1227,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The code name should be in lower case without spaces.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">The transition matrix specifies which parameters govern transitions between compartments. Entries in this matrix should correspond to parameter Code Names (cells will be red if the parameter name cannot be found on the Parameters sheet).
+If defining multiple cascades, the top left cell should contain the name of a population type. Leave an empty row, and then define a new transition matrix below. See the combined framework library example for guidance.
 </t>
         </r>
         <r>
@@ -1222,706 +1236,10 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{57EA8209-4B86-41FB-BF49-4A6D4754AB5F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">The display name will appear in plots and other outputs. It should be in sentence case.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{6201EA2B-5CE9-45D3-ABC5-5BC441C9B026}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column is for the 'components' of a cascade characteristic.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">A component is either a compartment or a characteristic that has
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">been previously defined, i.e. in a previous row, and should be
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">listed in this (and appropriate subsequent columns) by 'Code Name'.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">For example, characteristic 'infected' may include 'dis_stage_1',
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">'dis_stage_2' and 'dis_advanced', where 'dis_advanced' is another
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">previously-defined characteristic including 'dis_stage_3' and
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">'dis_stage_4'.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">In an example model, 'infected' would track population size summed
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">across the four 'dis_stage' states.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Note: If two or more components are listed in the same column, they
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">must be separated by a comma.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7BD7B4BC-A36F-458A-A3A5-AFA478F72DEB}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column defines a 'denominator' attribute for a 'charac' item.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{39B7B833-74F0-4AC6-AF4B-699C22909F95}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column defines a 'default_value' attribute for a 'charac' item.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{A8C56C78-1F68-424B-8E30-7A6B97DEEFE2}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column determines how important user-provided values for this
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">characteristic are to setting up the initial state of a model.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">In general, the column value should be '1' if model construction
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">directly depends on what the user provides for the characteristic.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">It should be '0' if supplied values are only for calibration or
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">note-keeping purposes.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">In this latter case, the linear-algebra method of setting up
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">compartment sizes may complain about an 'under-determined' system
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">during a model run.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">To avoid this, every compartment that has a nonzero setup weight
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">should be included in at least one distinct characteristic.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Note: Default value, i.e. a blank cell, is '1'.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Framework file parsing should also warn the user about a characteristic
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">with nonzero setup weight that is suppressed in the databook, i.e.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">has a databook order of '-1'.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{EE09D36E-A545-468A-9499-0CDA7C399F13}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column marks whether compartment size data can be rescaled
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">during model calibration processes. To enable calibration, enter a label in this column. If no value is entered, the item will not appear for calibration. If this column is not present, it will be automatically populated if the characteristic appears on a databook page.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{559607C2-31DF-4F19-8B38-ADD8E67B050A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column optionally marks whether a data-input section should
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">appear for this characteristic in a custom databook sheet, if allowed
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">to appear at all according to 'databook order'.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Each value should be a code name for a desired page defined in
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">the 'custom databook pages' worksheet page.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">If a cell is left empty, the enabled data-input section should appear
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">in a default databook page dedicated to state variables.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{ADDFC9C7-7898-4FFB-896C-C95E74B008F3}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column currently denotes whether a databook should request
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">historical values from the user for this characteristic.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">A value of '-1' suppresses it from appearing in the databook.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{1C23A732-9959-4088-8261-754697652C47}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Text entered here will appear as a comment in the title row of data entry tables in the databook</t>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">For further instructions on how to fill this out, please see cascade.tools/ug-frw-transitions
+</t>
         </r>
       </text>
     </comment>
@@ -1936,7 +1254,7 @@
     <author>Romesh</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E2FBD3E0-0A11-1C4B-B047-ED175ED137D6}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A81A74DD-AC0E-4B65-846B-CB2954186FEC}">
       <text>
         <r>
           <rPr>
@@ -1963,13 +1281,25 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{98F43FDC-B8F2-624A-A3D7-83BC76723056}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{57EA8209-4B86-41FB-BF49-4A6D4754AB5F}">
       <text>
         <r>
           <rPr>
@@ -1986,12 +1316,14 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-paramters</t>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{EF5E3AFE-CA03-46C5-8AFC-2AC6046E3E09}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{6201EA2B-5CE9-45D3-ABC5-5BC441C9B026}">
       <text>
         <r>
           <rPr>
@@ -2000,7 +1332,157 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">This column defines a 'format' attribute for a 'par' item.
+          <t xml:space="preserve">This column is for the 'components' of a cascade characteristic.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A component is either a compartment or a characteristic that has
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">been previously defined, i.e. in a previous row, and should be
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">listed in this (and appropriate subsequent columns) by 'Code Name'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">For example, characteristic 'infected' may include 'dis_stage_1',
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">'dis_stage_2' and 'dis_advanced', where 'dis_advanced' is another
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">previously-defined characteristic including 'dis_stage_3' and
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">'dis_stage_4'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In an example model, 'infected' would track population size summed
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">across the four 'dis_stage' states.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note: If two or more components are listed in the same column, they
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">must be separated by a comma.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -2008,434 +1490,517 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{A300C74D-F272-4D9A-8D8B-F358A29F1078}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7BD7B4BC-A36F-458A-A3A5-AFA478F72DEB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column defines a 'denominator' attribute for a 'charac' item.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{39B7B833-74F0-4AC6-AF4B-699C22909F95}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column defines a 'default_value' attribute for a 'charac' item.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{A8C56C78-1F68-424B-8E30-7A6B97DEEFE2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column determines how important user-provided values for this
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">characteristic are to setting up the initial state of a model.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In general, the column value should be '1' if model construction
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">directly depends on what the user provides for the characteristic.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">It should be '0' if supplied values are only for calibration or
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">note-keeping purposes.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In this latter case, the linear-algebra method of setting up
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">compartment sizes may complain about an 'under-determined' system
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">during a model run.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">To avoid this, every compartment that has a nonzero setup weight
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">should be included in at least one distinct characteristic.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note: Default value, i.e. a blank cell, is '1'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Framework file parsing should also warn the user about a characteristic
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">with nonzero setup weight that is suppressed in the databook, i.e.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">has a databook order of '-1'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{EE09D36E-A545-468A-9499-0CDA7C399F13}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column marks whether compartment size data can be rescaled
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">during model calibration processes. To enable calibration, enter a label in this column. If no value is entered, the item will not appear for calibration. If this column is not present, it will be automatically populated if the characteristic appears on a databook page.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{559607C2-31DF-4F19-8B38-ADD8E67B050A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column optionally marks whether a data-input section should
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">appear for this characteristic in a custom databook sheet, if allowed
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">to appear at all according to 'databook order'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Each value should be a code name for a desired page defined in
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the 'custom databook pages' worksheet page.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If a cell is left empty, the enabled data-input section should appear
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">in a default databook page dedicated to state variables.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{ADDFC9C7-7898-4FFB-896C-C95E74B008F3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column currently denotes whether a databook should request
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">historical values from the user for this characteristic.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A value of '-1' suppresses it from appearing in the databook.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{1C23A732-9959-4088-8261-754697652C47}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">This column defines the timescale for transition parameters. A value can be set here if the number or probability associated with the parameter is not on an annual basis. Values should be entered in this column in units of years. For example, a parameter for a daily probability would have the timescale set to '=1/365'
-For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters 
-</t>
+            <family val="2"/>
+          </rPr>
+          <t>Text entered here will appear as a comment in the title row of data entry tables in the databook</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FCE4BAB8-A6E9-4C37-855F-51EEAFF610F3}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column defines a 'default_value' attribute for a 'par' item.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F7DF6DA5-307D-42BB-80B5-CEE9AB8ED752}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column defines a 'min' attribute for a 'par' item.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{4C3AB2C0-9D0C-4C0E-9CF0-D571224FE5BD}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column defines a 'max' attribute for a 'par' item.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{98B9E77F-8634-4220-9AE2-2EB54A125949}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column defines a 'func' attribute for a 'par' item.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{974FC231-C2BA-4000-88CD-AB6CE23C45D0}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">If set to 'y', the parameter can be targeted by programs, and it will appear in the program book for any projects using this framework
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{2081E04D-F569-4CB4-A2D6-429C64002467}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column marks whether compartment size data can be rescaled during model calibration processes. To enable calibration, enter a label in this column. If no value is entered, the item will not appear for calibration. If this column is not present, it will be automatically populated if the parameter is targetable
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{9AB3D83C-D0BC-4583-B5B1-006FE7C2562F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column optionally marks whether a data-input section should appear for this parameter in a custom databook sheet, if allowed to appear at all according to 'databook order'.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Each value should be a code name for a desired page defined in the 'custom databook pages' worksheet page. If a cell is left empty, the enabled data-input section should appear in a default databook page dedicated to parameters.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters 
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{F4694702-1A69-4233-A84B-A75E88284228}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column currently denotes whether a databook should request
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">historical values from the user for this parameter.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">A value of '-1' suppresses it from appearing in the databook.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{334442D1-1566-452B-87A7-78190747C88B}">
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{118400D4-A6D3-48E2-89E8-2C7DD58D978B}">
       <text>
         <r>
           <rPr>
@@ -2444,7 +2009,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Text entered here will appear as a comment in the title row of data entry tables in the databook</t>
+          <t>Assign quantity to a population type. This column must match a population type listed on the 'Population types' sheet. If left empty, the first population type listed will be used</t>
         </r>
       </text>
     </comment>
@@ -2456,9 +2021,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
+    <author>Romesh</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{66A64F1C-99F5-114A-9E5C-A6F5444B3812}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E2FBD3E0-0A11-1C4B-B047-ED175ED137D6}">
       <text>
         <r>
           <rPr>
@@ -2485,13 +2051,14 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">For further instructions on how to fill this out, please see cascade.tools/ug-frw-interactions
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C2A1EF6A-7EE4-264E-8ABE-0FFF8850940E}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{98F43FDC-B8F2-624A-A3D7-83BC76723056}">
       <text>
         <r>
           <rPr>
@@ -2508,30 +2075,13 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">For further instructions on how to fill this out, please see </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>cascade.tools/ug-frw-interactions</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
+            <family val="2"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-paramters</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{ED07D9E4-694E-4387-BFA2-CAB6F8A058EC}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{EF5E3AFE-CA03-46C5-8AFC-2AC6046E3E09}">
       <text>
         <r>
           <rPr>
@@ -2540,27 +2090,488 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">This column defines a 'default_value' attribute for a 'interpop' item.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+          <t xml:space="preserve">This column defines a 'format' attribute for a 'par' item.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{A300C74D-F272-4D9A-8D8B-F358A29F1078}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column defines the timescale for transition parameters. A value can be set here if the number or probability associated with the parameter is not on an annual basis. Values should be entered in this column in units of years. For example, a parameter for a daily probability would have the timescale set to '=1/365'
+For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FCE4BAB8-A6E9-4C37-855F-51EEAFF610F3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column defines a 'default_value' attribute for a 'par' item.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F7DF6DA5-307D-42BB-80B5-CEE9AB8ED752}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column defines a 'min' attribute for a 'par' item.
+</t>
+        </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">For further instructions on how to fill this out, please see cascade.tools/ug-frw-interactions </t>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{4C3AB2C0-9D0C-4C0E-9CF0-D571224FE5BD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column defines a 'max' attribute for a 'par' item.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{98B9E77F-8634-4220-9AE2-2EB54A125949}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column defines a 'func' attribute for a 'par' item.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{974FC231-C2BA-4000-88CD-AB6CE23C45D0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If set to 'y', the parameter can be targeted by programs, and it will appear in the program book for any projects using this framework
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{2081E04D-F569-4CB4-A2D6-429C64002467}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column marks whether compartment size data can be rescaled during model calibration processes. To enable calibration, enter a label in this column. If no value is entered, the item will not appear for calibration. If this column is not present, it will be automatically populated if the parameter is targetable
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{9AB3D83C-D0BC-4583-B5B1-006FE7C2562F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column optionally marks whether a data-input section should appear for this parameter in a custom databook sheet, if allowed to appear at all according to 'databook order'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Each value should be a code name for a desired page defined in the 'custom databook pages' worksheet page. If a cell is left empty, the enabled data-input section should appear in a default databook page dedicated to parameters.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{F4694702-1A69-4233-A84B-A75E88284228}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column currently denotes whether a databook should request
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">historical values from the user for this parameter.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A value of '-1' suppresses it from appearing in the databook.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{334442D1-1566-452B-87A7-78190747C88B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Text entered here will appear as a comment in the title row of data entry tables in the databook</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{5A40974B-8263-4A1B-86CF-7F6950F59981}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assign quantity to a population type. This column must match a population type listed on the 'Population types' sheet. If left empty, the first population type listed will be used</t>
         </r>
       </text>
     </comment>
@@ -2571,24 +2582,25 @@
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author/>
     <author>Romesh</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B935E62C-0938-0C4C-AF10-F1E1867CC167}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{66A64F1C-99F5-114A-9E5C-A6F5444B3812}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Specify the name of your cascade in this cell. In the cells below, specify the names of your cascade's stages
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The code name should be in lower case without spaces.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -2601,60 +2613,113 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-cascades</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">For further instructions on how to fill this out, please see cascade.tools/ug-frw-interactions
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E94A098B-5A50-AA4C-99A6-0D4002426718}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C2A1EF6A-7EE4-264E-8ABE-0FFF8850940E}">
       <text>
         <r>
           <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The display name will appear in plots and other outputs. It should be in sentence case.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">For further instructions on how to fill this out, please see </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>cascade.tools/ug-frw-interactions</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{ED07D9E4-694E-4387-BFA2-CAB6F8A058EC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column defines a 'default_value' attribute for a 'interpop' item.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">For further instructions on how to fill this out, please see cascade.tools/ug-frw-interactions </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{9E95838B-CD2F-4A66-94E7-842ADACD12FA}">
+      <text>
+        <r>
+          <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">In this column, specify which compartments and characteristics make up each cascade stage. You should specify them as a comma separated list of code names e.g., 'sus, inf, rec'
-</t>
-        </r>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assign quantity to a population type. This column must match a population type listed on the 'Population types' sheet. If left empty, the first population type listed will be used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{D67BF957-D5C5-4856-B436-A23E71DF6876}">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-cascades</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assign quantity to a population type. This column must match a population type listed on the 'Population types' sheet. If left empty, the first population type listed will be used</t>
         </r>
       </text>
     </comment>
@@ -2665,6 +2730,104 @@
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Romesh</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B935E62C-0938-0C4C-AF10-F1E1867CC167}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Specify the name of your cascade in this cell. In the cells below, specify the names of your cascade's stages
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-cascades</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E94A098B-5A50-AA4C-99A6-0D4002426718}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In this column, specify which compartments and characteristics make up each cascade stage. You should specify them as a comma separated list of code names e.g., 'sus, inf, rec'
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-cascades</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author/>
   </authors>
   <commentList>
@@ -2695,6 +2858,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">For further instructions on how to fill this out, please see cascade.tools/ug-frw-plots
 </t>
@@ -2718,6 +2882,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-plots</t>
         </r>
@@ -2728,7 +2893,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>Datasheet Code Name</t>
   </si>
@@ -2844,9 +3009,6 @@
     <t>{'All':['comp1','comp2']}</t>
   </si>
   <si>
-    <t>Transition Matrix</t>
-  </si>
-  <si>
     <t>Parameter 1</t>
   </si>
   <si>
@@ -2897,12 +3059,30 @@
   <si>
     <t>Timescale</t>
   </si>
+  <si>
+    <t>Code name</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Population type</t>
+  </si>
+  <si>
+    <t>From population type</t>
+  </si>
+  <si>
+    <t>To population type</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2934,23 +3114,20 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2962,24 +3139,20 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3467,23 +3640,108 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A2575B-90FD-4432-ABB5-1D1C9A3EC31C}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{B6FB0777-9CB4-4E7A-978E-F88EC2A52ADA}">
+      <formula1>"n,y"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3494,7 +3752,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -3514,18 +3772,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3545,6 +3803,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CE1581-31F4-42B1-9DE6-29B15D89E18B}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -3552,7 +3849,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3590,7 +3887,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -3599,9 +3896,11 @@
         <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3664,12 +3963,18 @@
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C2776057-0350-4E7C-BAC5-318FB06D10B4}">
           <x14:formula1>
             <xm:f>'Databook Pages'!$A$2:$A$9999</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CA76BCBF-510E-44FC-AA8B-F65C1FAD9B61}">
+          <x14:formula1>
+            <xm:f>'Population types'!$A$2:$A$9999</xm:f>
+          </x14:formula1>
+          <xm:sqref>K1:K1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3677,14 +3982,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:OH398"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3692,9 +3999,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:398" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="B1" s="3" t="str">
         <f>IF(Compartments!$A2&lt;&gt;"",Compartments!$A2,"")</f>
         <v>comp1</v>
@@ -7691,15 +7995,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7713,10 +8017,10 @@
     <col min="7" max="7" width="14.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7736,7 +8040,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -7745,10 +8049,13 @@
         <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -7762,8 +8069,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -7804,12 +8112,18 @@
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5D0F4671-09BF-4759-B6D1-63C49CDF0760}">
           <x14:formula1>
             <xm:f>'Databook Pages'!$A$2:$A$9999</xm:f>
           </x14:formula1>
           <xm:sqref>H1:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{339EBB5E-6F02-46D2-A8F3-78461064F325}">
+          <x14:formula1>
+            <xm:f>'Population types'!$A$2:$A$9999</xm:f>
+          </x14:formula1>
+          <xm:sqref>K1:K1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7817,15 +8131,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7840,9 +8154,10 @@
     <col min="10" max="10" width="14.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7853,7 +8168,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -7868,10 +8183,10 @@
         <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>11</v>
@@ -7880,15 +8195,18 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -7897,13 +8215,14 @@
       <c r="G2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -7953,12 +8272,18 @@
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B0E7D17F-9C98-4BBD-89E8-B63866BAA65B}">
           <x14:formula1>
             <xm:f>'Databook Pages'!$A$2:$A$9999</xm:f>
           </x14:formula1>
           <xm:sqref>K1:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A5BACFCF-5A80-4E38-B286-225138198031}">
+          <x14:formula1>
+            <xm:f>'Population types'!$A$2:$A$9999</xm:f>
+          </x14:formula1>
+          <xm:sqref>N1:N1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7966,15 +8291,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7982,9 +8307,11 @@
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7994,17 +8321,25 @@
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -8015,10 +8350,22 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5D21E9BC-CAFE-4623-8C20-70DED145EE08}">
+          <x14:formula1>
+            <xm:f>'Population types'!$A$2:$A$9999</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576 E2:E1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1EAFB5-C4B0-491C-B03B-D10386E1B6D4}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -8034,7 +8381,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>31</v>
@@ -8060,89 +8407,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A2575B-90FD-4432-ABB5-1D1C9A3EC31C}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{B6FB0777-9CB4-4E7A-978E-F88EC2A52ADA}">
-      <formula1>"n,y"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/atomica/library/framework_template_advanced.xlsx
+++ b/atomica/library/framework_template_advanced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA5843A-C02C-44AC-B538-F26C582664B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7891C59-3B52-4AD9-94D0-581B24A1B9AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -2575,6 +2575,43 @@
         </r>
       </text>
     </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{313E745F-67D8-4CE4-B4E8-2FEEBB5B4A9E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If set to 'y', the parameter will serve as a time-limited transition that moves all people from a compartment once they have been in the compartment for the specified duration. These parameters cannot vary over time, are not targetable, and cannot be derivatives </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{7CD0FEB9-3AFA-45D0-BB50-215863F77842}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If set to 'y', the parameter function will be used as the derivative of the parameter. A derivative parameter must have a function and must appear in the databook. The databook value corresponds to the initial conditions. </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -2893,7 +2930,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>Datasheet Code Name</t>
   </si>
@@ -3076,6 +3113,12 @@
   </si>
   <si>
     <t>To population type</t>
+  </si>
+  <si>
+    <t>Timed</t>
+  </si>
+  <si>
+    <t>Is derivative</t>
   </si>
 </sst>
 </file>
@@ -3989,7 +4032,7 @@
   </sheetPr>
   <dimension ref="A1:OH398"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -8136,10 +8179,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8155,9 +8198,11 @@
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8200,8 +8245,14 @@
       <c r="N1" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
@@ -8217,7 +8268,7 @@
       <c r="L2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -8237,7 +8288,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{7CB7BECB-8CCA-402C-8209-B57AEC65D6EC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576 O2:P1048576" xr:uid="{7CB7BECB-8CCA-402C-8209-B57AEC65D6EC}">
       <formula1>"n,y"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Code names must be unique" error="Parameter code names must be unique" sqref="A1:A1048576" xr:uid="{E6E68E87-C2E4-4D80-BD6F-D69CE5F2A8E2}">

--- a/atomica/library/framework_template_advanced.xlsx
+++ b/atomica/library/framework_template_advanced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh.abey\Desktop\projects\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7891C59-3B52-4AD9-94D0-581B24A1B9AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015F840D-9E1F-4596-9170-05D57922151E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="17280" windowHeight="7686" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -29,6 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3675,13 +3678,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="74.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.41796875" customWidth="1"/>
+    <col min="2" max="2" width="74.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>42</v>
       </c>
@@ -3689,7 +3692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
@@ -3711,17 +3714,17 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.68359375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.15625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -3741,7 +3744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -3755,7 +3758,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -3769,7 +3772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -3799,13 +3802,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.68359375" customWidth="1"/>
+    <col min="2" max="2" width="16.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3813,7 +3816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -3821,7 +3824,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -3856,13 +3859,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>55</v>
       </c>
@@ -3870,7 +3873,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -3895,22 +3898,22 @@
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.68359375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.83984375" customWidth="1"/>
+    <col min="3" max="3" width="10.68359375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.68359375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.68359375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.68359375" customWidth="1"/>
+    <col min="7" max="7" width="13.68359375" customWidth="1"/>
+    <col min="8" max="8" width="14.68359375" customWidth="1"/>
+    <col min="9" max="9" width="14.68359375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.68359375" customWidth="1"/>
+    <col min="11" max="11" width="14.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3945,7 +3948,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -3958,7 +3961,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -4036,12 +4039,12 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26171875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:398" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:398" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="str">
         <f>IF(Compartments!$A2&lt;&gt;"",Compartments!$A2,"")</f>
         <v>comp1</v>
@@ -5631,2383 +5634,2383 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:398" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="str">
         <f>IF(Compartments!$A2&lt;&gt;"",Compartments!$A2,"")</f>
         <v>comp1</v>
       </c>
     </row>
-    <row r="3" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:398" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="str">
         <f>IF(Compartments!$A3&lt;&gt;"",Compartments!$A3,"")</f>
         <v>comp2</v>
       </c>
     </row>
-    <row r="4" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:398" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="str">
         <f>IF(Compartments!$A4&lt;&gt;"",Compartments!$A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:398" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="str">
         <f>IF(Compartments!$A5&lt;&gt;"",Compartments!$A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:398" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="str">
         <f>IF(Compartments!$A6&lt;&gt;"",Compartments!$A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:398" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="str">
         <f>IF(Compartments!$A7&lt;&gt;"",Compartments!$A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:398" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="str">
         <f>IF(Compartments!$A8&lt;&gt;"",Compartments!$A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:398" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="str">
         <f>IF(Compartments!$A9&lt;&gt;"",Compartments!$A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:398" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="str">
         <f>IF(Compartments!$A10&lt;&gt;"",Compartments!$A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:398" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="str">
         <f>IF(Compartments!$A11&lt;&gt;"",Compartments!$A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:398" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="str">
         <f>IF(Compartments!$A12&lt;&gt;"",Compartments!$A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:398" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="str">
         <f>IF(Compartments!$A13&lt;&gt;"",Compartments!$A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:398" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="str">
         <f>IF(Compartments!$A14&lt;&gt;"",Compartments!$A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:398" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="str">
         <f>IF(Compartments!$A15&lt;&gt;"",Compartments!$A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:398" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="str">
         <f>IF(Compartments!$A16&lt;&gt;"",Compartments!$A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="str">
         <f>IF(Compartments!$A17&lt;&gt;"",Compartments!$A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="str">
         <f>IF(Compartments!$A18&lt;&gt;"",Compartments!$A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="str">
         <f>IF(Compartments!$A19&lt;&gt;"",Compartments!$A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="str">
         <f>IF(Compartments!$A20&lt;&gt;"",Compartments!$A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="str">
         <f>IF(Compartments!$A21&lt;&gt;"",Compartments!$A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="str">
         <f>IF(Compartments!$A22&lt;&gt;"",Compartments!$A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="str">
         <f>IF(Compartments!$A23&lt;&gt;"",Compartments!$A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="str">
         <f>IF(Compartments!$A24&lt;&gt;"",Compartments!$A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="str">
         <f>IF(Compartments!$A25&lt;&gt;"",Compartments!$A25,"")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="str">
         <f>IF(Compartments!$A26&lt;&gt;"",Compartments!$A26,"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="str">
         <f>IF(Compartments!$A27&lt;&gt;"",Compartments!$A27,"")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="str">
         <f>IF(Compartments!$A28&lt;&gt;"",Compartments!$A28,"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="str">
         <f>IF(Compartments!$A29&lt;&gt;"",Compartments!$A29,"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="str">
         <f>IF(Compartments!$A30&lt;&gt;"",Compartments!$A30,"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="str">
         <f>IF(Compartments!$A31&lt;&gt;"",Compartments!$A31,"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="str">
         <f>IF(Compartments!$A32&lt;&gt;"",Compartments!$A32,"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="str">
         <f>IF(Compartments!$A33&lt;&gt;"",Compartments!$A33,"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="str">
         <f>IF(Compartments!$A34&lt;&gt;"",Compartments!$A34,"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="str">
         <f>IF(Compartments!$A35&lt;&gt;"",Compartments!$A35,"")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="str">
         <f>IF(Compartments!$A36&lt;&gt;"",Compartments!$A36,"")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3" t="str">
         <f>IF(Compartments!$A37&lt;&gt;"",Compartments!$A37,"")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="str">
         <f>IF(Compartments!$A38&lt;&gt;"",Compartments!$A38,"")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="str">
         <f>IF(Compartments!$A39&lt;&gt;"",Compartments!$A39,"")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="str">
         <f>IF(Compartments!$A40&lt;&gt;"",Compartments!$A40,"")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="str">
         <f>IF(Compartments!$A41&lt;&gt;"",Compartments!$A41,"")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="str">
         <f>IF(Compartments!$A42&lt;&gt;"",Compartments!$A42,"")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3" t="str">
         <f>IF(Compartments!$A43&lt;&gt;"",Compartments!$A43,"")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3" t="str">
         <f>IF(Compartments!$A44&lt;&gt;"",Compartments!$A44,"")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="str">
         <f>IF(Compartments!$A45&lt;&gt;"",Compartments!$A45,"")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3" t="str">
         <f>IF(Compartments!$A46&lt;&gt;"",Compartments!$A46,"")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3" t="str">
         <f>IF(Compartments!$A47&lt;&gt;"",Compartments!$A47,"")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3" t="str">
         <f>IF(Compartments!$A48&lt;&gt;"",Compartments!$A48,"")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3" t="str">
         <f>IF(Compartments!$A49&lt;&gt;"",Compartments!$A49,"")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3" t="str">
         <f>IF(Compartments!$A50&lt;&gt;"",Compartments!$A50,"")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3" t="str">
         <f>IF(Compartments!$A51&lt;&gt;"",Compartments!$A51,"")</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3" t="str">
         <f>IF(Compartments!$A52&lt;&gt;"",Compartments!$A52,"")</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3" t="str">
         <f>IF(Compartments!$A53&lt;&gt;"",Compartments!$A53,"")</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3" t="str">
         <f>IF(Compartments!$A54&lt;&gt;"",Compartments!$A54,"")</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3" t="str">
         <f>IF(Compartments!$A55&lt;&gt;"",Compartments!$A55,"")</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3" t="str">
         <f>IF(Compartments!$A56&lt;&gt;"",Compartments!$A56,"")</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3" t="str">
         <f>IF(Compartments!$A57&lt;&gt;"",Compartments!$A57,"")</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3" t="str">
         <f>IF(Compartments!$A58&lt;&gt;"",Compartments!$A58,"")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3" t="str">
         <f>IF(Compartments!$A59&lt;&gt;"",Compartments!$A59,"")</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3" t="str">
         <f>IF(Compartments!$A60&lt;&gt;"",Compartments!$A60,"")</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3" t="str">
         <f>IF(Compartments!$A61&lt;&gt;"",Compartments!$A61,"")</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3" t="str">
         <f>IF(Compartments!$A62&lt;&gt;"",Compartments!$A62,"")</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3" t="str">
         <f>IF(Compartments!$A63&lt;&gt;"",Compartments!$A63,"")</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3" t="str">
         <f>IF(Compartments!$A64&lt;&gt;"",Compartments!$A64,"")</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3" t="str">
         <f>IF(Compartments!$A65&lt;&gt;"",Compartments!$A65,"")</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3" t="str">
         <f>IF(Compartments!$A66&lt;&gt;"",Compartments!$A66,"")</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3" t="str">
         <f>IF(Compartments!$A67&lt;&gt;"",Compartments!$A67,"")</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3" t="str">
         <f>IF(Compartments!$A68&lt;&gt;"",Compartments!$A68,"")</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3" t="str">
         <f>IF(Compartments!$A69&lt;&gt;"",Compartments!$A69,"")</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3" t="str">
         <f>IF(Compartments!$A70&lt;&gt;"",Compartments!$A70,"")</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3" t="str">
         <f>IF(Compartments!$A71&lt;&gt;"",Compartments!$A71,"")</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3" t="str">
         <f>IF(Compartments!$A72&lt;&gt;"",Compartments!$A72,"")</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3" t="str">
         <f>IF(Compartments!$A73&lt;&gt;"",Compartments!$A73,"")</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3" t="str">
         <f>IF(Compartments!$A74&lt;&gt;"",Compartments!$A74,"")</f>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3" t="str">
         <f>IF(Compartments!$A75&lt;&gt;"",Compartments!$A75,"")</f>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3" t="str">
         <f>IF(Compartments!$A76&lt;&gt;"",Compartments!$A76,"")</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3" t="str">
         <f>IF(Compartments!$A77&lt;&gt;"",Compartments!$A77,"")</f>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="3" t="str">
         <f>IF(Compartments!$A78&lt;&gt;"",Compartments!$A78,"")</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="3" t="str">
         <f>IF(Compartments!$A79&lt;&gt;"",Compartments!$A79,"")</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="3" t="str">
         <f>IF(Compartments!$A80&lt;&gt;"",Compartments!$A80,"")</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="3" t="str">
         <f>IF(Compartments!$A81&lt;&gt;"",Compartments!$A81,"")</f>
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="3" t="str">
         <f>IF(Compartments!$A82&lt;&gt;"",Compartments!$A82,"")</f>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="3" t="str">
         <f>IF(Compartments!$A83&lt;&gt;"",Compartments!$A83,"")</f>
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="3" t="str">
         <f>IF(Compartments!$A84&lt;&gt;"",Compartments!$A84,"")</f>
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="3" t="str">
         <f>IF(Compartments!$A85&lt;&gt;"",Compartments!$A85,"")</f>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3" t="str">
         <f>IF(Compartments!$A86&lt;&gt;"",Compartments!$A86,"")</f>
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3" t="str">
         <f>IF(Compartments!$A87&lt;&gt;"",Compartments!$A87,"")</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3" t="str">
         <f>IF(Compartments!$A88&lt;&gt;"",Compartments!$A88,"")</f>
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="3" t="str">
         <f>IF(Compartments!$A89&lt;&gt;"",Compartments!$A89,"")</f>
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="3" t="str">
         <f>IF(Compartments!$A90&lt;&gt;"",Compartments!$A90,"")</f>
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="3" t="str">
         <f>IF(Compartments!$A91&lt;&gt;"",Compartments!$A91,"")</f>
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="3" t="str">
         <f>IF(Compartments!$A92&lt;&gt;"",Compartments!$A92,"")</f>
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="3" t="str">
         <f>IF(Compartments!$A93&lt;&gt;"",Compartments!$A93,"")</f>
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="3" t="str">
         <f>IF(Compartments!$A94&lt;&gt;"",Compartments!$A94,"")</f>
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="3" t="str">
         <f>IF(Compartments!$A95&lt;&gt;"",Compartments!$A95,"")</f>
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="3" t="str">
         <f>IF(Compartments!$A96&lt;&gt;"",Compartments!$A96,"")</f>
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="3" t="str">
         <f>IF(Compartments!$A97&lt;&gt;"",Compartments!$A97,"")</f>
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="3" t="str">
         <f>IF(Compartments!$A98&lt;&gt;"",Compartments!$A98,"")</f>
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="3" t="str">
         <f>IF(Compartments!$A99&lt;&gt;"",Compartments!$A99,"")</f>
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="3" t="str">
         <f>IF(Compartments!$A100&lt;&gt;"",Compartments!$A100,"")</f>
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="3" t="str">
         <f>IF(Compartments!$A101&lt;&gt;"",Compartments!$A101,"")</f>
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="3" t="str">
         <f>IF(Compartments!$A102&lt;&gt;"",Compartments!$A102,"")</f>
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="3" t="str">
         <f>IF(Compartments!$A103&lt;&gt;"",Compartments!$A103,"")</f>
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="3" t="str">
         <f>IF(Compartments!$A104&lt;&gt;"",Compartments!$A104,"")</f>
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="3" t="str">
         <f>IF(Compartments!$A105&lt;&gt;"",Compartments!$A105,"")</f>
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="3" t="str">
         <f>IF(Compartments!$A106&lt;&gt;"",Compartments!$A106,"")</f>
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="3" t="str">
         <f>IF(Compartments!$A107&lt;&gt;"",Compartments!$A107,"")</f>
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="3" t="str">
         <f>IF(Compartments!$A108&lt;&gt;"",Compartments!$A108,"")</f>
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="3" t="str">
         <f>IF(Compartments!$A109&lt;&gt;"",Compartments!$A109,"")</f>
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="3" t="str">
         <f>IF(Compartments!$A110&lt;&gt;"",Compartments!$A110,"")</f>
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="3" t="str">
         <f>IF(Compartments!$A111&lt;&gt;"",Compartments!$A111,"")</f>
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="3" t="str">
         <f>IF(Compartments!$A112&lt;&gt;"",Compartments!$A112,"")</f>
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="3" t="str">
         <f>IF(Compartments!$A113&lt;&gt;"",Compartments!$A113,"")</f>
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="3" t="str">
         <f>IF(Compartments!$A114&lt;&gt;"",Compartments!$A114,"")</f>
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="3" t="str">
         <f>IF(Compartments!$A115&lt;&gt;"",Compartments!$A115,"")</f>
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="3" t="str">
         <f>IF(Compartments!$A116&lt;&gt;"",Compartments!$A116,"")</f>
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="3" t="str">
         <f>IF(Compartments!$A117&lt;&gt;"",Compartments!$A117,"")</f>
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="3" t="str">
         <f>IF(Compartments!$A118&lt;&gt;"",Compartments!$A118,"")</f>
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="3" t="str">
         <f>IF(Compartments!$A119&lt;&gt;"",Compartments!$A119,"")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="3" t="str">
         <f>IF(Compartments!$A120&lt;&gt;"",Compartments!$A120,"")</f>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="3" t="str">
         <f>IF(Compartments!$A121&lt;&gt;"",Compartments!$A121,"")</f>
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="3" t="str">
         <f>IF(Compartments!$A122&lt;&gt;"",Compartments!$A122,"")</f>
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="3" t="str">
         <f>IF(Compartments!$A123&lt;&gt;"",Compartments!$A123,"")</f>
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="3" t="str">
         <f>IF(Compartments!$A124&lt;&gt;"",Compartments!$A124,"")</f>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="3" t="str">
         <f>IF(Compartments!$A125&lt;&gt;"",Compartments!$A125,"")</f>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="3" t="str">
         <f>IF(Compartments!$A126&lt;&gt;"",Compartments!$A126,"")</f>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="3" t="str">
         <f>IF(Compartments!$A127&lt;&gt;"",Compartments!$A127,"")</f>
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="3" t="str">
         <f>IF(Compartments!$A128&lt;&gt;"",Compartments!$A128,"")</f>
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="3" t="str">
         <f>IF(Compartments!$A129&lt;&gt;"",Compartments!$A129,"")</f>
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="3" t="str">
         <f>IF(Compartments!$A130&lt;&gt;"",Compartments!$A130,"")</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="3" t="str">
         <f>IF(Compartments!$A131&lt;&gt;"",Compartments!$A131,"")</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="3" t="str">
         <f>IF(Compartments!$A132&lt;&gt;"",Compartments!$A132,"")</f>
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="3" t="str">
         <f>IF(Compartments!$A133&lt;&gt;"",Compartments!$A133,"")</f>
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="3" t="str">
         <f>IF(Compartments!$A134&lt;&gt;"",Compartments!$A134,"")</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="3" t="str">
         <f>IF(Compartments!$A135&lt;&gt;"",Compartments!$A135,"")</f>
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="3" t="str">
         <f>IF(Compartments!$A136&lt;&gt;"",Compartments!$A136,"")</f>
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="3" t="str">
         <f>IF(Compartments!$A137&lt;&gt;"",Compartments!$A137,"")</f>
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="3" t="str">
         <f>IF(Compartments!$A138&lt;&gt;"",Compartments!$A138,"")</f>
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="3" t="str">
         <f>IF(Compartments!$A139&lt;&gt;"",Compartments!$A139,"")</f>
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="3" t="str">
         <f>IF(Compartments!$A140&lt;&gt;"",Compartments!$A140,"")</f>
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="3" t="str">
         <f>IF(Compartments!$A141&lt;&gt;"",Compartments!$A141,"")</f>
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="3" t="str">
         <f>IF(Compartments!$A142&lt;&gt;"",Compartments!$A142,"")</f>
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="3" t="str">
         <f>IF(Compartments!$A143&lt;&gt;"",Compartments!$A143,"")</f>
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="3" t="str">
         <f>IF(Compartments!$A144&lt;&gt;"",Compartments!$A144,"")</f>
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="3" t="str">
         <f>IF(Compartments!$A145&lt;&gt;"",Compartments!$A145,"")</f>
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="3" t="str">
         <f>IF(Compartments!$A146&lt;&gt;"",Compartments!$A146,"")</f>
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="3" t="str">
         <f>IF(Compartments!$A147&lt;&gt;"",Compartments!$A147,"")</f>
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="3" t="str">
         <f>IF(Compartments!$A148&lt;&gt;"",Compartments!$A148,"")</f>
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="3" t="str">
         <f>IF(Compartments!$A149&lt;&gt;"",Compartments!$A149,"")</f>
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="3" t="str">
         <f>IF(Compartments!$A150&lt;&gt;"",Compartments!$A150,"")</f>
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="3" t="str">
         <f>IF(Compartments!$A151&lt;&gt;"",Compartments!$A151,"")</f>
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="3" t="str">
         <f>IF(Compartments!$A152&lt;&gt;"",Compartments!$A152,"")</f>
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="3" t="str">
         <f>IF(Compartments!$A153&lt;&gt;"",Compartments!$A153,"")</f>
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="3" t="str">
         <f>IF(Compartments!$A154&lt;&gt;"",Compartments!$A154,"")</f>
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="3" t="str">
         <f>IF(Compartments!$A155&lt;&gt;"",Compartments!$A155,"")</f>
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="3" t="str">
         <f>IF(Compartments!$A156&lt;&gt;"",Compartments!$A156,"")</f>
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="3" t="str">
         <f>IF(Compartments!$A157&lt;&gt;"",Compartments!$A157,"")</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="3" t="str">
         <f>IF(Compartments!$A158&lt;&gt;"",Compartments!$A158,"")</f>
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="3" t="str">
         <f>IF(Compartments!$A159&lt;&gt;"",Compartments!$A159,"")</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="3" t="str">
         <f>IF(Compartments!$A160&lt;&gt;"",Compartments!$A160,"")</f>
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="3" t="str">
         <f>IF(Compartments!$A161&lt;&gt;"",Compartments!$A161,"")</f>
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="3" t="str">
         <f>IF(Compartments!$A162&lt;&gt;"",Compartments!$A162,"")</f>
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="3" t="str">
         <f>IF(Compartments!$A163&lt;&gt;"",Compartments!$A163,"")</f>
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="3" t="str">
         <f>IF(Compartments!$A164&lt;&gt;"",Compartments!$A164,"")</f>
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="3" t="str">
         <f>IF(Compartments!$A165&lt;&gt;"",Compartments!$A165,"")</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="3" t="str">
         <f>IF(Compartments!$A166&lt;&gt;"",Compartments!$A166,"")</f>
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="3" t="str">
         <f>IF(Compartments!$A167&lt;&gt;"",Compartments!$A167,"")</f>
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="3" t="str">
         <f>IF(Compartments!$A168&lt;&gt;"",Compartments!$A168,"")</f>
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="3" t="str">
         <f>IF(Compartments!$A169&lt;&gt;"",Compartments!$A169,"")</f>
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="3" t="str">
         <f>IF(Compartments!$A170&lt;&gt;"",Compartments!$A170,"")</f>
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="3" t="str">
         <f>IF(Compartments!$A171&lt;&gt;"",Compartments!$A171,"")</f>
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="3" t="str">
         <f>IF(Compartments!$A172&lt;&gt;"",Compartments!$A172,"")</f>
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="3" t="str">
         <f>IF(Compartments!$A173&lt;&gt;"",Compartments!$A173,"")</f>
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="3" t="str">
         <f>IF(Compartments!$A174&lt;&gt;"",Compartments!$A174,"")</f>
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="3" t="str">
         <f>IF(Compartments!$A175&lt;&gt;"",Compartments!$A175,"")</f>
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="3" t="str">
         <f>IF(Compartments!$A176&lt;&gt;"",Compartments!$A176,"")</f>
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="3" t="str">
         <f>IF(Compartments!$A177&lt;&gt;"",Compartments!$A177,"")</f>
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="3" t="str">
         <f>IF(Compartments!$A178&lt;&gt;"",Compartments!$A178,"")</f>
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="3" t="str">
         <f>IF(Compartments!$A179&lt;&gt;"",Compartments!$A179,"")</f>
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="3" t="str">
         <f>IF(Compartments!$A180&lt;&gt;"",Compartments!$A180,"")</f>
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="3" t="str">
         <f>IF(Compartments!$A181&lt;&gt;"",Compartments!$A181,"")</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="3" t="str">
         <f>IF(Compartments!$A182&lt;&gt;"",Compartments!$A182,"")</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="3" t="str">
         <f>IF(Compartments!$A183&lt;&gt;"",Compartments!$A183,"")</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="3" t="str">
         <f>IF(Compartments!$A184&lt;&gt;"",Compartments!$A184,"")</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="3" t="str">
         <f>IF(Compartments!$A185&lt;&gt;"",Compartments!$A185,"")</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="3" t="str">
         <f>IF(Compartments!$A186&lt;&gt;"",Compartments!$A186,"")</f>
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="3" t="str">
         <f>IF(Compartments!$A187&lt;&gt;"",Compartments!$A187,"")</f>
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="3" t="str">
         <f>IF(Compartments!$A188&lt;&gt;"",Compartments!$A188,"")</f>
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="3" t="str">
         <f>IF(Compartments!$A189&lt;&gt;"",Compartments!$A189,"")</f>
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="3" t="str">
         <f>IF(Compartments!$A190&lt;&gt;"",Compartments!$A190,"")</f>
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="3" t="str">
         <f>IF(Compartments!$A191&lt;&gt;"",Compartments!$A191,"")</f>
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="3" t="str">
         <f>IF(Compartments!$A192&lt;&gt;"",Compartments!$A192,"")</f>
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="3" t="str">
         <f>IF(Compartments!$A193&lt;&gt;"",Compartments!$A193,"")</f>
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="3" t="str">
         <f>IF(Compartments!$A194&lt;&gt;"",Compartments!$A194,"")</f>
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="3" t="str">
         <f>IF(Compartments!$A195&lt;&gt;"",Compartments!$A195,"")</f>
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="3" t="str">
         <f>IF(Compartments!$A196&lt;&gt;"",Compartments!$A196,"")</f>
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="3" t="str">
         <f>IF(Compartments!$A197&lt;&gt;"",Compartments!$A197,"")</f>
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="3" t="str">
         <f>IF(Compartments!$A198&lt;&gt;"",Compartments!$A198,"")</f>
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="3" t="str">
         <f>IF(Compartments!$A199&lt;&gt;"",Compartments!$A199,"")</f>
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="3" t="str">
         <f>IF(Compartments!$A200&lt;&gt;"",Compartments!$A200,"")</f>
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="3" t="str">
         <f>IF(Compartments!$A201&lt;&gt;"",Compartments!$A201,"")</f>
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="3" t="str">
         <f>IF(Compartments!$A202&lt;&gt;"",Compartments!$A202,"")</f>
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="3" t="str">
         <f>IF(Compartments!$A203&lt;&gt;"",Compartments!$A203,"")</f>
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="3" t="str">
         <f>IF(Compartments!$A204&lt;&gt;"",Compartments!$A204,"")</f>
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="3" t="str">
         <f>IF(Compartments!$A205&lt;&gt;"",Compartments!$A205,"")</f>
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="3" t="str">
         <f>IF(Compartments!$A206&lt;&gt;"",Compartments!$A206,"")</f>
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="3" t="str">
         <f>IF(Compartments!$A207&lt;&gt;"",Compartments!$A207,"")</f>
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="3" t="str">
         <f>IF(Compartments!$A208&lt;&gt;"",Compartments!$A208,"")</f>
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="3" t="str">
         <f>IF(Compartments!$A209&lt;&gt;"",Compartments!$A209,"")</f>
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="3" t="str">
         <f>IF(Compartments!$A210&lt;&gt;"",Compartments!$A210,"")</f>
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="3" t="str">
         <f>IF(Compartments!$A211&lt;&gt;"",Compartments!$A211,"")</f>
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="3" t="str">
         <f>IF(Compartments!$A212&lt;&gt;"",Compartments!$A212,"")</f>
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="3" t="str">
         <f>IF(Compartments!$A213&lt;&gt;"",Compartments!$A213,"")</f>
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="3" t="str">
         <f>IF(Compartments!$A214&lt;&gt;"",Compartments!$A214,"")</f>
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="3" t="str">
         <f>IF(Compartments!$A215&lt;&gt;"",Compartments!$A215,"")</f>
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="3" t="str">
         <f>IF(Compartments!$A216&lt;&gt;"",Compartments!$A216,"")</f>
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="3" t="str">
         <f>IF(Compartments!$A217&lt;&gt;"",Compartments!$A217,"")</f>
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="3" t="str">
         <f>IF(Compartments!$A218&lt;&gt;"",Compartments!$A218,"")</f>
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="3" t="str">
         <f>IF(Compartments!$A219&lt;&gt;"",Compartments!$A219,"")</f>
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="3" t="str">
         <f>IF(Compartments!$A220&lt;&gt;"",Compartments!$A220,"")</f>
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="3" t="str">
         <f>IF(Compartments!$A221&lt;&gt;"",Compartments!$A221,"")</f>
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="3" t="str">
         <f>IF(Compartments!$A222&lt;&gt;"",Compartments!$A222,"")</f>
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="3" t="str">
         <f>IF(Compartments!$A223&lt;&gt;"",Compartments!$A223,"")</f>
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="3" t="str">
         <f>IF(Compartments!$A224&lt;&gt;"",Compartments!$A224,"")</f>
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="3" t="str">
         <f>IF(Compartments!$A225&lt;&gt;"",Compartments!$A225,"")</f>
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="3" t="str">
         <f>IF(Compartments!$A226&lt;&gt;"",Compartments!$A226,"")</f>
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="3" t="str">
         <f>IF(Compartments!$A227&lt;&gt;"",Compartments!$A227,"")</f>
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="3" t="str">
         <f>IF(Compartments!$A228&lt;&gt;"",Compartments!$A228,"")</f>
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="3" t="str">
         <f>IF(Compartments!$A229&lt;&gt;"",Compartments!$A229,"")</f>
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="3" t="str">
         <f>IF(Compartments!$A230&lt;&gt;"",Compartments!$A230,"")</f>
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="3" t="str">
         <f>IF(Compartments!$A231&lt;&gt;"",Compartments!$A231,"")</f>
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="3" t="str">
         <f>IF(Compartments!$A232&lt;&gt;"",Compartments!$A232,"")</f>
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="3" t="str">
         <f>IF(Compartments!$A233&lt;&gt;"",Compartments!$A233,"")</f>
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="3" t="str">
         <f>IF(Compartments!$A234&lt;&gt;"",Compartments!$A234,"")</f>
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="3" t="str">
         <f>IF(Compartments!$A235&lt;&gt;"",Compartments!$A235,"")</f>
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="3" t="str">
         <f>IF(Compartments!$A236&lt;&gt;"",Compartments!$A236,"")</f>
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="3" t="str">
         <f>IF(Compartments!$A237&lt;&gt;"",Compartments!$A237,"")</f>
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="3" t="str">
         <f>IF(Compartments!$A238&lt;&gt;"",Compartments!$A238,"")</f>
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="3" t="str">
         <f>IF(Compartments!$A239&lt;&gt;"",Compartments!$A239,"")</f>
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="3" t="str">
         <f>IF(Compartments!$A240&lt;&gt;"",Compartments!$A240,"")</f>
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="3" t="str">
         <f>IF(Compartments!$A241&lt;&gt;"",Compartments!$A241,"")</f>
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="3" t="str">
         <f>IF(Compartments!$A242&lt;&gt;"",Compartments!$A242,"")</f>
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="3" t="str">
         <f>IF(Compartments!$A243&lt;&gt;"",Compartments!$A243,"")</f>
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="3" t="str">
         <f>IF(Compartments!$A244&lt;&gt;"",Compartments!$A244,"")</f>
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="3" t="str">
         <f>IF(Compartments!$A245&lt;&gt;"",Compartments!$A245,"")</f>
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="3" t="str">
         <f>IF(Compartments!$A246&lt;&gt;"",Compartments!$A246,"")</f>
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="3" t="str">
         <f>IF(Compartments!$A247&lt;&gt;"",Compartments!$A247,"")</f>
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="3" t="str">
         <f>IF(Compartments!$A248&lt;&gt;"",Compartments!$A248,"")</f>
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="3" t="str">
         <f>IF(Compartments!$A249&lt;&gt;"",Compartments!$A249,"")</f>
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="3" t="str">
         <f>IF(Compartments!$A250&lt;&gt;"",Compartments!$A250,"")</f>
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="3" t="str">
         <f>IF(Compartments!$A251&lt;&gt;"",Compartments!$A251,"")</f>
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="3" t="str">
         <f>IF(Compartments!$A252&lt;&gt;"",Compartments!$A252,"")</f>
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="3" t="str">
         <f>IF(Compartments!$A253&lt;&gt;"",Compartments!$A253,"")</f>
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="3" t="str">
         <f>IF(Compartments!$A254&lt;&gt;"",Compartments!$A254,"")</f>
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="3" t="str">
         <f>IF(Compartments!$A255&lt;&gt;"",Compartments!$A255,"")</f>
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="3" t="str">
         <f>IF(Compartments!$A256&lt;&gt;"",Compartments!$A256,"")</f>
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="3" t="str">
         <f>IF(Compartments!$A257&lt;&gt;"",Compartments!$A257,"")</f>
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="3" t="str">
         <f>IF(Compartments!$A258&lt;&gt;"",Compartments!$A258,"")</f>
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="3" t="str">
         <f>IF(Compartments!$A259&lt;&gt;"",Compartments!$A259,"")</f>
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="3" t="str">
         <f>IF(Compartments!$A260&lt;&gt;"",Compartments!$A260,"")</f>
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="3" t="str">
         <f>IF(Compartments!$A261&lt;&gt;"",Compartments!$A261,"")</f>
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="3" t="str">
         <f>IF(Compartments!$A262&lt;&gt;"",Compartments!$A262,"")</f>
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="3" t="str">
         <f>IF(Compartments!$A263&lt;&gt;"",Compartments!$A263,"")</f>
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="3" t="str">
         <f>IF(Compartments!$A264&lt;&gt;"",Compartments!$A264,"")</f>
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="3" t="str">
         <f>IF(Compartments!$A265&lt;&gt;"",Compartments!$A265,"")</f>
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="3" t="str">
         <f>IF(Compartments!$A266&lt;&gt;"",Compartments!$A266,"")</f>
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="3" t="str">
         <f>IF(Compartments!$A267&lt;&gt;"",Compartments!$A267,"")</f>
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="3" t="str">
         <f>IF(Compartments!$A268&lt;&gt;"",Compartments!$A268,"")</f>
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="3" t="str">
         <f>IF(Compartments!$A269&lt;&gt;"",Compartments!$A269,"")</f>
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="3" t="str">
         <f>IF(Compartments!$A270&lt;&gt;"",Compartments!$A270,"")</f>
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="3" t="str">
         <f>IF(Compartments!$A271&lt;&gt;"",Compartments!$A271,"")</f>
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="3" t="str">
         <f>IF(Compartments!$A272&lt;&gt;"",Compartments!$A272,"")</f>
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="3" t="str">
         <f>IF(Compartments!$A273&lt;&gt;"",Compartments!$A273,"")</f>
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="3" t="str">
         <f>IF(Compartments!$A274&lt;&gt;"",Compartments!$A274,"")</f>
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="3" t="str">
         <f>IF(Compartments!$A275&lt;&gt;"",Compartments!$A275,"")</f>
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="3" t="str">
         <f>IF(Compartments!$A276&lt;&gt;"",Compartments!$A276,"")</f>
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="3" t="str">
         <f>IF(Compartments!$A277&lt;&gt;"",Compartments!$A277,"")</f>
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="3" t="str">
         <f>IF(Compartments!$A278&lt;&gt;"",Compartments!$A278,"")</f>
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="3" t="str">
         <f>IF(Compartments!$A279&lt;&gt;"",Compartments!$A279,"")</f>
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="3" t="str">
         <f>IF(Compartments!$A280&lt;&gt;"",Compartments!$A280,"")</f>
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="3" t="str">
         <f>IF(Compartments!$A281&lt;&gt;"",Compartments!$A281,"")</f>
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="3" t="str">
         <f>IF(Compartments!$A282&lt;&gt;"",Compartments!$A282,"")</f>
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="3" t="str">
         <f>IF(Compartments!$A283&lt;&gt;"",Compartments!$A283,"")</f>
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="3" t="str">
         <f>IF(Compartments!$A284&lt;&gt;"",Compartments!$A284,"")</f>
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="3" t="str">
         <f>IF(Compartments!$A285&lt;&gt;"",Compartments!$A285,"")</f>
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="3" t="str">
         <f>IF(Compartments!$A286&lt;&gt;"",Compartments!$A286,"")</f>
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="3" t="str">
         <f>IF(Compartments!$A287&lt;&gt;"",Compartments!$A287,"")</f>
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="3" t="str">
         <f>IF(Compartments!$A288&lt;&gt;"",Compartments!$A288,"")</f>
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="3" t="str">
         <f>IF(Compartments!$A289&lt;&gt;"",Compartments!$A289,"")</f>
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="3" t="str">
         <f>IF(Compartments!$A290&lt;&gt;"",Compartments!$A290,"")</f>
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="3" t="str">
         <f>IF(Compartments!$A291&lt;&gt;"",Compartments!$A291,"")</f>
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="3" t="str">
         <f>IF(Compartments!$A292&lt;&gt;"",Compartments!$A292,"")</f>
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="3" t="str">
         <f>IF(Compartments!$A293&lt;&gt;"",Compartments!$A293,"")</f>
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="3" t="str">
         <f>IF(Compartments!$A294&lt;&gt;"",Compartments!$A294,"")</f>
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="3" t="str">
         <f>IF(Compartments!$A295&lt;&gt;"",Compartments!$A295,"")</f>
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="3" t="str">
         <f>IF(Compartments!$A296&lt;&gt;"",Compartments!$A296,"")</f>
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="3" t="str">
         <f>IF(Compartments!$A297&lt;&gt;"",Compartments!$A297,"")</f>
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="3" t="str">
         <f>IF(Compartments!$A298&lt;&gt;"",Compartments!$A298,"")</f>
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="3" t="str">
         <f>IF(Compartments!$A299&lt;&gt;"",Compartments!$A299,"")</f>
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="3" t="str">
         <f>IF(Compartments!$A300&lt;&gt;"",Compartments!$A300,"")</f>
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="3" t="str">
         <f>IF(Compartments!$A301&lt;&gt;"",Compartments!$A301,"")</f>
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="3" t="str">
         <f>IF(Compartments!$A302&lt;&gt;"",Compartments!$A302,"")</f>
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="3" t="str">
         <f>IF(Compartments!$A303&lt;&gt;"",Compartments!$A303,"")</f>
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="3" t="str">
         <f>IF(Compartments!$A304&lt;&gt;"",Compartments!$A304,"")</f>
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="3" t="str">
         <f>IF(Compartments!$A305&lt;&gt;"",Compartments!$A305,"")</f>
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="3" t="str">
         <f>IF(Compartments!$A306&lt;&gt;"",Compartments!$A306,"")</f>
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="3" t="str">
         <f>IF(Compartments!$A307&lt;&gt;"",Compartments!$A307,"")</f>
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="3" t="str">
         <f>IF(Compartments!$A308&lt;&gt;"",Compartments!$A308,"")</f>
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="3" t="str">
         <f>IF(Compartments!$A309&lt;&gt;"",Compartments!$A309,"")</f>
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="3" t="str">
         <f>IF(Compartments!$A310&lt;&gt;"",Compartments!$A310,"")</f>
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="3" t="str">
         <f>IF(Compartments!$A311&lt;&gt;"",Compartments!$A311,"")</f>
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="3" t="str">
         <f>IF(Compartments!$A312&lt;&gt;"",Compartments!$A312,"")</f>
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="3" t="str">
         <f>IF(Compartments!$A313&lt;&gt;"",Compartments!$A313,"")</f>
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="3" t="str">
         <f>IF(Compartments!$A314&lt;&gt;"",Compartments!$A314,"")</f>
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="3" t="str">
         <f>IF(Compartments!$A315&lt;&gt;"",Compartments!$A315,"")</f>
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="3" t="str">
         <f>IF(Compartments!$A316&lt;&gt;"",Compartments!$A316,"")</f>
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="3" t="str">
         <f>IF(Compartments!$A317&lt;&gt;"",Compartments!$A317,"")</f>
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="3" t="str">
         <f>IF(Compartments!$A318&lt;&gt;"",Compartments!$A318,"")</f>
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="3" t="str">
         <f>IF(Compartments!$A319&lt;&gt;"",Compartments!$A319,"")</f>
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="3" t="str">
         <f>IF(Compartments!$A320&lt;&gt;"",Compartments!$A320,"")</f>
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="3" t="str">
         <f>IF(Compartments!$A321&lt;&gt;"",Compartments!$A321,"")</f>
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="3" t="str">
         <f>IF(Compartments!$A322&lt;&gt;"",Compartments!$A322,"")</f>
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="3" t="str">
         <f>IF(Compartments!$A323&lt;&gt;"",Compartments!$A323,"")</f>
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="3" t="str">
         <f>IF(Compartments!$A324&lt;&gt;"",Compartments!$A324,"")</f>
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="3" t="str">
         <f>IF(Compartments!$A325&lt;&gt;"",Compartments!$A325,"")</f>
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="3" t="str">
         <f>IF(Compartments!$A326&lt;&gt;"",Compartments!$A326,"")</f>
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="3" t="str">
         <f>IF(Compartments!$A327&lt;&gt;"",Compartments!$A327,"")</f>
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="3" t="str">
         <f>IF(Compartments!$A328&lt;&gt;"",Compartments!$A328,"")</f>
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="3" t="str">
         <f>IF(Compartments!$A329&lt;&gt;"",Compartments!$A329,"")</f>
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="3" t="str">
         <f>IF(Compartments!$A330&lt;&gt;"",Compartments!$A330,"")</f>
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="3" t="str">
         <f>IF(Compartments!$A331&lt;&gt;"",Compartments!$A331,"")</f>
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="3" t="str">
         <f>IF(Compartments!$A332&lt;&gt;"",Compartments!$A332,"")</f>
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="3" t="str">
         <f>IF(Compartments!$A333&lt;&gt;"",Compartments!$A333,"")</f>
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="3" t="str">
         <f>IF(Compartments!$A334&lt;&gt;"",Compartments!$A334,"")</f>
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="3" t="str">
         <f>IF(Compartments!$A335&lt;&gt;"",Compartments!$A335,"")</f>
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="3" t="str">
         <f>IF(Compartments!$A336&lt;&gt;"",Compartments!$A336,"")</f>
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="3" t="str">
         <f>IF(Compartments!$A337&lt;&gt;"",Compartments!$A337,"")</f>
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="3" t="str">
         <f>IF(Compartments!$A338&lt;&gt;"",Compartments!$A338,"")</f>
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="3" t="str">
         <f>IF(Compartments!$A339&lt;&gt;"",Compartments!$A339,"")</f>
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="3" t="str">
         <f>IF(Compartments!$A340&lt;&gt;"",Compartments!$A340,"")</f>
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="3" t="str">
         <f>IF(Compartments!$A341&lt;&gt;"",Compartments!$A341,"")</f>
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="3" t="str">
         <f>IF(Compartments!$A342&lt;&gt;"",Compartments!$A342,"")</f>
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="3" t="str">
         <f>IF(Compartments!$A343&lt;&gt;"",Compartments!$A343,"")</f>
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="3" t="str">
         <f>IF(Compartments!$A344&lt;&gt;"",Compartments!$A344,"")</f>
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="3" t="str">
         <f>IF(Compartments!$A345&lt;&gt;"",Compartments!$A345,"")</f>
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="3" t="str">
         <f>IF(Compartments!$A346&lt;&gt;"",Compartments!$A346,"")</f>
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="3" t="str">
         <f>IF(Compartments!$A347&lt;&gt;"",Compartments!$A347,"")</f>
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="3" t="str">
         <f>IF(Compartments!$A348&lt;&gt;"",Compartments!$A348,"")</f>
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="3" t="str">
         <f>IF(Compartments!$A349&lt;&gt;"",Compartments!$A349,"")</f>
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="3" t="str">
         <f>IF(Compartments!$A350&lt;&gt;"",Compartments!$A350,"")</f>
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="3" t="str">
         <f>IF(Compartments!$A351&lt;&gt;"",Compartments!$A351,"")</f>
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="3" t="str">
         <f>IF(Compartments!$A352&lt;&gt;"",Compartments!$A352,"")</f>
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="3" t="str">
         <f>IF(Compartments!$A353&lt;&gt;"",Compartments!$A353,"")</f>
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="3" t="str">
         <f>IF(Compartments!$A354&lt;&gt;"",Compartments!$A354,"")</f>
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="3" t="str">
         <f>IF(Compartments!$A355&lt;&gt;"",Compartments!$A355,"")</f>
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="3" t="str">
         <f>IF(Compartments!$A356&lt;&gt;"",Compartments!$A356,"")</f>
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="3" t="str">
         <f>IF(Compartments!$A357&lt;&gt;"",Compartments!$A357,"")</f>
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="3" t="str">
         <f>IF(Compartments!$A358&lt;&gt;"",Compartments!$A358,"")</f>
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="3" t="str">
         <f>IF(Compartments!$A359&lt;&gt;"",Compartments!$A359,"")</f>
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="3" t="str">
         <f>IF(Compartments!$A360&lt;&gt;"",Compartments!$A360,"")</f>
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="3" t="str">
         <f>IF(Compartments!$A361&lt;&gt;"",Compartments!$A361,"")</f>
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="3" t="str">
         <f>IF(Compartments!$A362&lt;&gt;"",Compartments!$A362,"")</f>
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="3" t="str">
         <f>IF(Compartments!$A363&lt;&gt;"",Compartments!$A363,"")</f>
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="3" t="str">
         <f>IF(Compartments!$A364&lt;&gt;"",Compartments!$A364,"")</f>
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="3" t="str">
         <f>IF(Compartments!$A365&lt;&gt;"",Compartments!$A365,"")</f>
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="3" t="str">
         <f>IF(Compartments!$A366&lt;&gt;"",Compartments!$A366,"")</f>
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="3" t="str">
         <f>IF(Compartments!$A367&lt;&gt;"",Compartments!$A367,"")</f>
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="3" t="str">
         <f>IF(Compartments!$A368&lt;&gt;"",Compartments!$A368,"")</f>
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="3" t="str">
         <f>IF(Compartments!$A369&lt;&gt;"",Compartments!$A369,"")</f>
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="3" t="str">
         <f>IF(Compartments!$A370&lt;&gt;"",Compartments!$A370,"")</f>
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="3" t="str">
         <f>IF(Compartments!$A371&lt;&gt;"",Compartments!$A371,"")</f>
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="3" t="str">
         <f>IF(Compartments!$A372&lt;&gt;"",Compartments!$A372,"")</f>
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="3" t="str">
         <f>IF(Compartments!$A373&lt;&gt;"",Compartments!$A373,"")</f>
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="3" t="str">
         <f>IF(Compartments!$A374&lt;&gt;"",Compartments!$A374,"")</f>
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="3" t="str">
         <f>IF(Compartments!$A375&lt;&gt;"",Compartments!$A375,"")</f>
         <v/>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="3" t="str">
         <f>IF(Compartments!$A376&lt;&gt;"",Compartments!$A376,"")</f>
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="3" t="str">
         <f>IF(Compartments!$A377&lt;&gt;"",Compartments!$A377,"")</f>
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="3" t="str">
         <f>IF(Compartments!$A378&lt;&gt;"",Compartments!$A378,"")</f>
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="3" t="str">
         <f>IF(Compartments!$A379&lt;&gt;"",Compartments!$A379,"")</f>
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="3" t="str">
         <f>IF(Compartments!$A380&lt;&gt;"",Compartments!$A380,"")</f>
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="3" t="str">
         <f>IF(Compartments!$A381&lt;&gt;"",Compartments!$A381,"")</f>
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="3" t="str">
         <f>IF(Compartments!$A382&lt;&gt;"",Compartments!$A382,"")</f>
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="3" t="str">
         <f>IF(Compartments!$A383&lt;&gt;"",Compartments!$A383,"")</f>
         <v/>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="3" t="str">
         <f>IF(Compartments!$A384&lt;&gt;"",Compartments!$A384,"")</f>
         <v/>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="3" t="str">
         <f>IF(Compartments!$A385&lt;&gt;"",Compartments!$A385,"")</f>
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="3" t="str">
         <f>IF(Compartments!$A386&lt;&gt;"",Compartments!$A386,"")</f>
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="3" t="str">
         <f>IF(Compartments!$A387&lt;&gt;"",Compartments!$A387,"")</f>
         <v/>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="3" t="str">
         <f>IF(Compartments!$A388&lt;&gt;"",Compartments!$A388,"")</f>
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="3" t="str">
         <f>IF(Compartments!$A389&lt;&gt;"",Compartments!$A389,"")</f>
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="3" t="str">
         <f>IF(Compartments!$A390&lt;&gt;"",Compartments!$A390,"")</f>
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="3" t="str">
         <f>IF(Compartments!$A391&lt;&gt;"",Compartments!$A391,"")</f>
         <v/>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="3" t="str">
         <f>IF(Compartments!$A392&lt;&gt;"",Compartments!$A392,"")</f>
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="3" t="str">
         <f>IF(Compartments!$A393&lt;&gt;"",Compartments!$A393,"")</f>
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="3" t="str">
         <f>IF(Compartments!$A394&lt;&gt;"",Compartments!$A394,"")</f>
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="3" t="str">
         <f>IF(Compartments!$A395&lt;&gt;"",Compartments!$A395,"")</f>
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="3" t="str">
         <f>IF(Compartments!$A396&lt;&gt;"",Compartments!$A396,"")</f>
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="3" t="str">
         <f>IF(Compartments!$A397&lt;&gt;"",Compartments!$A397,"")</f>
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="3" t="str">
         <f>IF(Compartments!$A398&lt;&gt;"",Compartments!$A398,"")</f>
         <v/>
@@ -8049,21 +8052,21 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.68359375" customWidth="1"/>
+    <col min="2" max="2" width="16.83984375" customWidth="1"/>
+    <col min="3" max="3" width="11.68359375" customWidth="1"/>
+    <col min="4" max="4" width="12.68359375" customWidth="1"/>
+    <col min="5" max="5" width="14.68359375" customWidth="1"/>
+    <col min="6" max="6" width="13.68359375" customWidth="1"/>
+    <col min="7" max="7" width="14.68359375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.68359375" customWidth="1"/>
+    <col min="9" max="9" width="15.68359375" customWidth="1"/>
+    <col min="10" max="11" width="14.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8098,7 +8101,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -8114,7 +8117,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -8182,27 +8185,27 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.68359375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.83984375" customWidth="1"/>
+    <col min="3" max="3" width="7.68359375" customWidth="1"/>
+    <col min="4" max="4" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.68359375" customWidth="1"/>
+    <col min="8" max="8" width="8.68359375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.68359375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.68359375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.68359375" customWidth="1"/>
+    <col min="12" max="12" width="15.68359375" customWidth="1"/>
+    <col min="14" max="14" width="14.68359375" customWidth="1"/>
+    <col min="15" max="15" width="10.68359375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.83984375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8252,7 +8255,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
@@ -8268,7 +8271,7 @@
       <c r="L2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -8294,13 +8297,13 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Code names must be unique" error="Parameter code names must be unique" sqref="A1:A1048576" xr:uid="{E6E68E87-C2E4-4D80-BD6F-D69CE5F2A8E2}">
       <formula1>COUNTIF(A:A,A1)&lt;2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{8DEB734B-0D92-46DE-82B5-50C9B463F1CD}">
-      <formula1>"probability, number, proportion, duration"</formula1>
-    </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{7B357739-ECEB-45D0-9FF6-C94815526279}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{3C5E5528-F961-4CFC-83ED-CB90A50DF965}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{23A69AD6-56EA-4510-BE84-B964156BC5E6}">
+      <formula1>"rate, probability, number, proportion, duration"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8353,16 +8356,16 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83984375" customWidth="1"/>
+    <col min="3" max="3" width="14.68359375" customWidth="1"/>
+    <col min="4" max="4" width="20.41796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8379,7 +8382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -8424,13 +8427,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -8438,7 +8441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -8446,7 +8449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>33</v>
       </c>

--- a/atomica/library/framework_template_advanced.xlsx
+++ b/atomica/library/framework_template_advanced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh.abey\Desktop\projects\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romesh.abeysuriya/projects/atomica/atomica/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015F840D-9E1F-4596-9170-05D57922151E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9B31DB-38E3-D74D-81CE-1D7B61EA513E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="17280" windowHeight="7686" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="1780" windowWidth="26460" windowHeight="9400" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -124,6 +124,7 @@
   <authors>
     <author/>
     <author>Romesh</author>
+    <author>Romesh Abeysuriya</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8F11EEB6-017C-4E97-8DFB-6E8BA3F55C2C}">
@@ -1203,11 +1204,37 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t>Assign quantity to a population type. This column must match a population type listed on the 'Population types' sheet. If left empty, the first population type listed will be used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="2" shapeId="0" xr:uid="{9E6B3C79-2646-3D48-8BB7-240A3AF02207}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If supplied, this value will pre-populate any new databooks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="2" shapeId="0" xr:uid="{693850E7-DA22-0B46-9D3A-BB09E95D4E97}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If a default value is provided, this column will pre-populate the 'Provenance' field in the databook to record the source for the default value</t>
         </r>
       </text>
     </comment>
@@ -1255,6 +1282,7 @@
   <authors>
     <author/>
     <author>Romesh</author>
+    <author>Romesh Abeysuriya</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A81A74DD-AC0E-4B65-846B-CB2954186FEC}">
@@ -2013,6 +2041,19 @@
             <family val="2"/>
           </rPr>
           <t>Assign quantity to a population type. This column must match a population type listed on the 'Population types' sheet. If left empty, the first population type listed will be used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="2" shapeId="0" xr:uid="{2B896D7E-5E39-434D-990C-A4061B19E1F2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If a default value is provided, this column will pre-populate the 'Provenance' field in the databook to record the source for the default value</t>
         </r>
       </text>
     </comment>
@@ -2025,6 +2066,7 @@
   <authors>
     <author/>
     <author>Romesh</author>
+    <author>Romesh Abeysuriya</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E2FBD3E0-0A11-1C4B-B047-ED175ED137D6}">
@@ -2151,29 +2193,8 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
+          </rPr>
+          <t xml:space="preserve">For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters 
 </t>
         </r>
       </text>
@@ -2612,6 +2633,19 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">If set to 'y', the parameter function will be used as the derivative of the parameter. A derivative parameter must have a function and must appear in the databook. The databook value corresponds to the initial conditions. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="2" shapeId="0" xr:uid="{33D055D4-AF34-FC43-932F-BD2258ED8C1B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If a default value is provided, this column will pre-populate the 'Provenance' field in the databook to record the source for the default value</t>
         </r>
       </text>
     </comment>
@@ -2933,7 +2967,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>Datasheet Code Name</t>
   </si>
@@ -3123,6 +3157,12 @@
   <si>
     <t>Is derivative</t>
   </si>
+  <si>
+    <t>Default value</t>
+  </si>
+  <si>
+    <t>Provenance</t>
+  </si>
 </sst>
 </file>
 
@@ -3221,7 +3261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3233,9 +3273,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3243,7 +3280,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3289,20 +3333,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3317,7 +3347,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3348,10 +3378,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3389,9 +3423,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3424,26 +3458,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3476,26 +3493,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3678,13 +3678,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.41796875" customWidth="1"/>
-    <col min="2" max="2" width="74.83984375" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="74.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>42</v>
       </c>
@@ -3692,11 +3692,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3714,17 +3714,17 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="22.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -3802,13 +3802,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.68359375" customWidth="1"/>
-    <col min="2" max="2" width="16.83984375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -3833,14 +3833,9 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1 B4:B1048576">
-    <cfRule type="expression" dxfId="12" priority="2">
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="11" priority="1">
-      <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3859,13 +3854,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>55</v>
       </c>
@@ -3873,7 +3868,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -3892,28 +3887,30 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView topLeftCell="I1" zoomScale="215" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.68359375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.83984375" customWidth="1"/>
-    <col min="3" max="3" width="10.68359375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.68359375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.68359375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.68359375" customWidth="1"/>
-    <col min="7" max="7" width="13.68359375" customWidth="1"/>
-    <col min="8" max="8" width="14.68359375" customWidth="1"/>
-    <col min="9" max="9" width="14.68359375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.68359375" customWidth="1"/>
-    <col min="11" max="11" width="14.68359375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3929,7 +3926,7 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -3947,8 +3944,14 @@
       <c r="K1" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -3961,7 +3964,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -3978,11 +3981,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>AND(I2&lt;&gt;"",NOT(H2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:E1048576" xr:uid="{EFA3D3D9-56A8-43F0-A737-1EDBC3038312}">
       <formula1>"n,y"</formula1>
     </dataValidation>
@@ -4009,7 +4012,7 @@
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C2776057-0350-4E7C-BAC5-318FB06D10B4}">
           <x14:formula1>
             <xm:f>'Databook Pages'!$A$2:$A$9999</xm:f>
@@ -4039,12 +4042,12 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.26171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:398" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:398" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="str">
         <f>IF(Compartments!$A2&lt;&gt;"",Compartments!$A2,"")</f>
         <v>comp1</v>
@@ -5634,2383 +5637,2383 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:398" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f>IF(Compartments!$A2&lt;&gt;"",Compartments!$A2,"")</f>
         <v>comp1</v>
       </c>
     </row>
-    <row r="3" spans="1:398" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f>IF(Compartments!$A3&lt;&gt;"",Compartments!$A3,"")</f>
         <v>comp2</v>
       </c>
     </row>
-    <row r="4" spans="1:398" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f>IF(Compartments!$A4&lt;&gt;"",Compartments!$A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:398" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f>IF(Compartments!$A5&lt;&gt;"",Compartments!$A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:398" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f>IF(Compartments!$A6&lt;&gt;"",Compartments!$A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:398" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f>IF(Compartments!$A7&lt;&gt;"",Compartments!$A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:398" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f>IF(Compartments!$A8&lt;&gt;"",Compartments!$A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:398" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f>IF(Compartments!$A9&lt;&gt;"",Compartments!$A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:398" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f>IF(Compartments!$A10&lt;&gt;"",Compartments!$A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:398" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f>IF(Compartments!$A11&lt;&gt;"",Compartments!$A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:398" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f>IF(Compartments!$A12&lt;&gt;"",Compartments!$A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:398" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f>IF(Compartments!$A13&lt;&gt;"",Compartments!$A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:398" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f>IF(Compartments!$A14&lt;&gt;"",Compartments!$A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:398" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f>IF(Compartments!$A15&lt;&gt;"",Compartments!$A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:398" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f>IF(Compartments!$A16&lt;&gt;"",Compartments!$A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f>IF(Compartments!$A17&lt;&gt;"",Compartments!$A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f>IF(Compartments!$A18&lt;&gt;"",Compartments!$A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f>IF(Compartments!$A19&lt;&gt;"",Compartments!$A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f>IF(Compartments!$A20&lt;&gt;"",Compartments!$A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f>IF(Compartments!$A21&lt;&gt;"",Compartments!$A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f>IF(Compartments!$A22&lt;&gt;"",Compartments!$A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f>IF(Compartments!$A23&lt;&gt;"",Compartments!$A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f>IF(Compartments!$A24&lt;&gt;"",Compartments!$A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f>IF(Compartments!$A25&lt;&gt;"",Compartments!$A25,"")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f>IF(Compartments!$A26&lt;&gt;"",Compartments!$A26,"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f>IF(Compartments!$A27&lt;&gt;"",Compartments!$A27,"")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f>IF(Compartments!$A28&lt;&gt;"",Compartments!$A28,"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f>IF(Compartments!$A29&lt;&gt;"",Compartments!$A29,"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f>IF(Compartments!$A30&lt;&gt;"",Compartments!$A30,"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f>IF(Compartments!$A31&lt;&gt;"",Compartments!$A31,"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f>IF(Compartments!$A32&lt;&gt;"",Compartments!$A32,"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f>IF(Compartments!$A33&lt;&gt;"",Compartments!$A33,"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f>IF(Compartments!$A34&lt;&gt;"",Compartments!$A34,"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f>IF(Compartments!$A35&lt;&gt;"",Compartments!$A35,"")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f>IF(Compartments!$A36&lt;&gt;"",Compartments!$A36,"")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f>IF(Compartments!$A37&lt;&gt;"",Compartments!$A37,"")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f>IF(Compartments!$A38&lt;&gt;"",Compartments!$A38,"")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f>IF(Compartments!$A39&lt;&gt;"",Compartments!$A39,"")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f>IF(Compartments!$A40&lt;&gt;"",Compartments!$A40,"")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f>IF(Compartments!$A41&lt;&gt;"",Compartments!$A41,"")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f>IF(Compartments!$A42&lt;&gt;"",Compartments!$A42,"")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f>IF(Compartments!$A43&lt;&gt;"",Compartments!$A43,"")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f>IF(Compartments!$A44&lt;&gt;"",Compartments!$A44,"")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f>IF(Compartments!$A45&lt;&gt;"",Compartments!$A45,"")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f>IF(Compartments!$A46&lt;&gt;"",Compartments!$A46,"")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f>IF(Compartments!$A47&lt;&gt;"",Compartments!$A47,"")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f>IF(Compartments!$A48&lt;&gt;"",Compartments!$A48,"")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f>IF(Compartments!$A49&lt;&gt;"",Compartments!$A49,"")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f>IF(Compartments!$A50&lt;&gt;"",Compartments!$A50,"")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f>IF(Compartments!$A51&lt;&gt;"",Compartments!$A51,"")</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f>IF(Compartments!$A52&lt;&gt;"",Compartments!$A52,"")</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f>IF(Compartments!$A53&lt;&gt;"",Compartments!$A53,"")</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f>IF(Compartments!$A54&lt;&gt;"",Compartments!$A54,"")</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f>IF(Compartments!$A55&lt;&gt;"",Compartments!$A55,"")</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f>IF(Compartments!$A56&lt;&gt;"",Compartments!$A56,"")</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f>IF(Compartments!$A57&lt;&gt;"",Compartments!$A57,"")</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f>IF(Compartments!$A58&lt;&gt;"",Compartments!$A58,"")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f>IF(Compartments!$A59&lt;&gt;"",Compartments!$A59,"")</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f>IF(Compartments!$A60&lt;&gt;"",Compartments!$A60,"")</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f>IF(Compartments!$A61&lt;&gt;"",Compartments!$A61,"")</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f>IF(Compartments!$A62&lt;&gt;"",Compartments!$A62,"")</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f>IF(Compartments!$A63&lt;&gt;"",Compartments!$A63,"")</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f>IF(Compartments!$A64&lt;&gt;"",Compartments!$A64,"")</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f>IF(Compartments!$A65&lt;&gt;"",Compartments!$A65,"")</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f>IF(Compartments!$A66&lt;&gt;"",Compartments!$A66,"")</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f>IF(Compartments!$A67&lt;&gt;"",Compartments!$A67,"")</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f>IF(Compartments!$A68&lt;&gt;"",Compartments!$A68,"")</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f>IF(Compartments!$A69&lt;&gt;"",Compartments!$A69,"")</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f>IF(Compartments!$A70&lt;&gt;"",Compartments!$A70,"")</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f>IF(Compartments!$A71&lt;&gt;"",Compartments!$A71,"")</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f>IF(Compartments!$A72&lt;&gt;"",Compartments!$A72,"")</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f>IF(Compartments!$A73&lt;&gt;"",Compartments!$A73,"")</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f>IF(Compartments!$A74&lt;&gt;"",Compartments!$A74,"")</f>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f>IF(Compartments!$A75&lt;&gt;"",Compartments!$A75,"")</f>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f>IF(Compartments!$A76&lt;&gt;"",Compartments!$A76,"")</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f>IF(Compartments!$A77&lt;&gt;"",Compartments!$A77,"")</f>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f>IF(Compartments!$A78&lt;&gt;"",Compartments!$A78,"")</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f>IF(Compartments!$A79&lt;&gt;"",Compartments!$A79,"")</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f>IF(Compartments!$A80&lt;&gt;"",Compartments!$A80,"")</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f>IF(Compartments!$A81&lt;&gt;"",Compartments!$A81,"")</f>
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f>IF(Compartments!$A82&lt;&gt;"",Compartments!$A82,"")</f>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f>IF(Compartments!$A83&lt;&gt;"",Compartments!$A83,"")</f>
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f>IF(Compartments!$A84&lt;&gt;"",Compartments!$A84,"")</f>
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f>IF(Compartments!$A85&lt;&gt;"",Compartments!$A85,"")</f>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f>IF(Compartments!$A86&lt;&gt;"",Compartments!$A86,"")</f>
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f>IF(Compartments!$A87&lt;&gt;"",Compartments!$A87,"")</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f>IF(Compartments!$A88&lt;&gt;"",Compartments!$A88,"")</f>
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f>IF(Compartments!$A89&lt;&gt;"",Compartments!$A89,"")</f>
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f>IF(Compartments!$A90&lt;&gt;"",Compartments!$A90,"")</f>
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f>IF(Compartments!$A91&lt;&gt;"",Compartments!$A91,"")</f>
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f>IF(Compartments!$A92&lt;&gt;"",Compartments!$A92,"")</f>
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="str">
         <f>IF(Compartments!$A93&lt;&gt;"",Compartments!$A93,"")</f>
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="str">
         <f>IF(Compartments!$A94&lt;&gt;"",Compartments!$A94,"")</f>
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="str">
         <f>IF(Compartments!$A95&lt;&gt;"",Compartments!$A95,"")</f>
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="str">
         <f>IF(Compartments!$A96&lt;&gt;"",Compartments!$A96,"")</f>
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="str">
         <f>IF(Compartments!$A97&lt;&gt;"",Compartments!$A97,"")</f>
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="str">
         <f>IF(Compartments!$A98&lt;&gt;"",Compartments!$A98,"")</f>
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="str">
         <f>IF(Compartments!$A99&lt;&gt;"",Compartments!$A99,"")</f>
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="str">
         <f>IF(Compartments!$A100&lt;&gt;"",Compartments!$A100,"")</f>
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="str">
         <f>IF(Compartments!$A101&lt;&gt;"",Compartments!$A101,"")</f>
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="str">
         <f>IF(Compartments!$A102&lt;&gt;"",Compartments!$A102,"")</f>
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="str">
         <f>IF(Compartments!$A103&lt;&gt;"",Compartments!$A103,"")</f>
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="str">
         <f>IF(Compartments!$A104&lt;&gt;"",Compartments!$A104,"")</f>
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="str">
         <f>IF(Compartments!$A105&lt;&gt;"",Compartments!$A105,"")</f>
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="str">
         <f>IF(Compartments!$A106&lt;&gt;"",Compartments!$A106,"")</f>
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="str">
         <f>IF(Compartments!$A107&lt;&gt;"",Compartments!$A107,"")</f>
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="str">
         <f>IF(Compartments!$A108&lt;&gt;"",Compartments!$A108,"")</f>
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="str">
         <f>IF(Compartments!$A109&lt;&gt;"",Compartments!$A109,"")</f>
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="str">
         <f>IF(Compartments!$A110&lt;&gt;"",Compartments!$A110,"")</f>
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="str">
         <f>IF(Compartments!$A111&lt;&gt;"",Compartments!$A111,"")</f>
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="str">
         <f>IF(Compartments!$A112&lt;&gt;"",Compartments!$A112,"")</f>
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="str">
         <f>IF(Compartments!$A113&lt;&gt;"",Compartments!$A113,"")</f>
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="str">
         <f>IF(Compartments!$A114&lt;&gt;"",Compartments!$A114,"")</f>
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="str">
         <f>IF(Compartments!$A115&lt;&gt;"",Compartments!$A115,"")</f>
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="str">
         <f>IF(Compartments!$A116&lt;&gt;"",Compartments!$A116,"")</f>
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="str">
         <f>IF(Compartments!$A117&lt;&gt;"",Compartments!$A117,"")</f>
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="str">
         <f>IF(Compartments!$A118&lt;&gt;"",Compartments!$A118,"")</f>
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="str">
         <f>IF(Compartments!$A119&lt;&gt;"",Compartments!$A119,"")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="str">
         <f>IF(Compartments!$A120&lt;&gt;"",Compartments!$A120,"")</f>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="str">
         <f>IF(Compartments!$A121&lt;&gt;"",Compartments!$A121,"")</f>
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="str">
         <f>IF(Compartments!$A122&lt;&gt;"",Compartments!$A122,"")</f>
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="str">
         <f>IF(Compartments!$A123&lt;&gt;"",Compartments!$A123,"")</f>
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="str">
         <f>IF(Compartments!$A124&lt;&gt;"",Compartments!$A124,"")</f>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="str">
         <f>IF(Compartments!$A125&lt;&gt;"",Compartments!$A125,"")</f>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="str">
         <f>IF(Compartments!$A126&lt;&gt;"",Compartments!$A126,"")</f>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="str">
         <f>IF(Compartments!$A127&lt;&gt;"",Compartments!$A127,"")</f>
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="str">
         <f>IF(Compartments!$A128&lt;&gt;"",Compartments!$A128,"")</f>
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="str">
         <f>IF(Compartments!$A129&lt;&gt;"",Compartments!$A129,"")</f>
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="str">
         <f>IF(Compartments!$A130&lt;&gt;"",Compartments!$A130,"")</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="str">
         <f>IF(Compartments!$A131&lt;&gt;"",Compartments!$A131,"")</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="str">
         <f>IF(Compartments!$A132&lt;&gt;"",Compartments!$A132,"")</f>
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="str">
         <f>IF(Compartments!$A133&lt;&gt;"",Compartments!$A133,"")</f>
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="str">
         <f>IF(Compartments!$A134&lt;&gt;"",Compartments!$A134,"")</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="str">
         <f>IF(Compartments!$A135&lt;&gt;"",Compartments!$A135,"")</f>
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="str">
         <f>IF(Compartments!$A136&lt;&gt;"",Compartments!$A136,"")</f>
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="str">
         <f>IF(Compartments!$A137&lt;&gt;"",Compartments!$A137,"")</f>
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="str">
         <f>IF(Compartments!$A138&lt;&gt;"",Compartments!$A138,"")</f>
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="str">
         <f>IF(Compartments!$A139&lt;&gt;"",Compartments!$A139,"")</f>
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="str">
         <f>IF(Compartments!$A140&lt;&gt;"",Compartments!$A140,"")</f>
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="str">
         <f>IF(Compartments!$A141&lt;&gt;"",Compartments!$A141,"")</f>
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="str">
         <f>IF(Compartments!$A142&lt;&gt;"",Compartments!$A142,"")</f>
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="str">
         <f>IF(Compartments!$A143&lt;&gt;"",Compartments!$A143,"")</f>
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="str">
         <f>IF(Compartments!$A144&lt;&gt;"",Compartments!$A144,"")</f>
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="str">
         <f>IF(Compartments!$A145&lt;&gt;"",Compartments!$A145,"")</f>
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="str">
         <f>IF(Compartments!$A146&lt;&gt;"",Compartments!$A146,"")</f>
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="str">
         <f>IF(Compartments!$A147&lt;&gt;"",Compartments!$A147,"")</f>
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="str">
         <f>IF(Compartments!$A148&lt;&gt;"",Compartments!$A148,"")</f>
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="str">
         <f>IF(Compartments!$A149&lt;&gt;"",Compartments!$A149,"")</f>
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="str">
         <f>IF(Compartments!$A150&lt;&gt;"",Compartments!$A150,"")</f>
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="str">
         <f>IF(Compartments!$A151&lt;&gt;"",Compartments!$A151,"")</f>
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="str">
         <f>IF(Compartments!$A152&lt;&gt;"",Compartments!$A152,"")</f>
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="str">
         <f>IF(Compartments!$A153&lt;&gt;"",Compartments!$A153,"")</f>
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="str">
         <f>IF(Compartments!$A154&lt;&gt;"",Compartments!$A154,"")</f>
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="str">
         <f>IF(Compartments!$A155&lt;&gt;"",Compartments!$A155,"")</f>
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="str">
         <f>IF(Compartments!$A156&lt;&gt;"",Compartments!$A156,"")</f>
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="str">
         <f>IF(Compartments!$A157&lt;&gt;"",Compartments!$A157,"")</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="str">
         <f>IF(Compartments!$A158&lt;&gt;"",Compartments!$A158,"")</f>
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="str">
         <f>IF(Compartments!$A159&lt;&gt;"",Compartments!$A159,"")</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="str">
         <f>IF(Compartments!$A160&lt;&gt;"",Compartments!$A160,"")</f>
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="str">
         <f>IF(Compartments!$A161&lt;&gt;"",Compartments!$A161,"")</f>
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="str">
         <f>IF(Compartments!$A162&lt;&gt;"",Compartments!$A162,"")</f>
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="str">
         <f>IF(Compartments!$A163&lt;&gt;"",Compartments!$A163,"")</f>
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="str">
         <f>IF(Compartments!$A164&lt;&gt;"",Compartments!$A164,"")</f>
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="str">
         <f>IF(Compartments!$A165&lt;&gt;"",Compartments!$A165,"")</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="str">
         <f>IF(Compartments!$A166&lt;&gt;"",Compartments!$A166,"")</f>
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="str">
         <f>IF(Compartments!$A167&lt;&gt;"",Compartments!$A167,"")</f>
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="str">
         <f>IF(Compartments!$A168&lt;&gt;"",Compartments!$A168,"")</f>
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="str">
         <f>IF(Compartments!$A169&lt;&gt;"",Compartments!$A169,"")</f>
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="str">
         <f>IF(Compartments!$A170&lt;&gt;"",Compartments!$A170,"")</f>
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="str">
         <f>IF(Compartments!$A171&lt;&gt;"",Compartments!$A171,"")</f>
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="str">
         <f>IF(Compartments!$A172&lt;&gt;"",Compartments!$A172,"")</f>
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="str">
         <f>IF(Compartments!$A173&lt;&gt;"",Compartments!$A173,"")</f>
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="str">
         <f>IF(Compartments!$A174&lt;&gt;"",Compartments!$A174,"")</f>
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="str">
         <f>IF(Compartments!$A175&lt;&gt;"",Compartments!$A175,"")</f>
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="str">
         <f>IF(Compartments!$A176&lt;&gt;"",Compartments!$A176,"")</f>
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="str">
         <f>IF(Compartments!$A177&lt;&gt;"",Compartments!$A177,"")</f>
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="str">
         <f>IF(Compartments!$A178&lt;&gt;"",Compartments!$A178,"")</f>
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="str">
         <f>IF(Compartments!$A179&lt;&gt;"",Compartments!$A179,"")</f>
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="str">
         <f>IF(Compartments!$A180&lt;&gt;"",Compartments!$A180,"")</f>
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="str">
         <f>IF(Compartments!$A181&lt;&gt;"",Compartments!$A181,"")</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="str">
         <f>IF(Compartments!$A182&lt;&gt;"",Compartments!$A182,"")</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="str">
         <f>IF(Compartments!$A183&lt;&gt;"",Compartments!$A183,"")</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="str">
         <f>IF(Compartments!$A184&lt;&gt;"",Compartments!$A184,"")</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="str">
         <f>IF(Compartments!$A185&lt;&gt;"",Compartments!$A185,"")</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="str">
         <f>IF(Compartments!$A186&lt;&gt;"",Compartments!$A186,"")</f>
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="str">
         <f>IF(Compartments!$A187&lt;&gt;"",Compartments!$A187,"")</f>
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="str">
         <f>IF(Compartments!$A188&lt;&gt;"",Compartments!$A188,"")</f>
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="str">
         <f>IF(Compartments!$A189&lt;&gt;"",Compartments!$A189,"")</f>
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="str">
         <f>IF(Compartments!$A190&lt;&gt;"",Compartments!$A190,"")</f>
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="str">
         <f>IF(Compartments!$A191&lt;&gt;"",Compartments!$A191,"")</f>
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="str">
         <f>IF(Compartments!$A192&lt;&gt;"",Compartments!$A192,"")</f>
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="str">
         <f>IF(Compartments!$A193&lt;&gt;"",Compartments!$A193,"")</f>
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="str">
         <f>IF(Compartments!$A194&lt;&gt;"",Compartments!$A194,"")</f>
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="str">
         <f>IF(Compartments!$A195&lt;&gt;"",Compartments!$A195,"")</f>
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="str">
         <f>IF(Compartments!$A196&lt;&gt;"",Compartments!$A196,"")</f>
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="str">
         <f>IF(Compartments!$A197&lt;&gt;"",Compartments!$A197,"")</f>
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="str">
         <f>IF(Compartments!$A198&lt;&gt;"",Compartments!$A198,"")</f>
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="str">
         <f>IF(Compartments!$A199&lt;&gt;"",Compartments!$A199,"")</f>
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="str">
         <f>IF(Compartments!$A200&lt;&gt;"",Compartments!$A200,"")</f>
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="str">
         <f>IF(Compartments!$A201&lt;&gt;"",Compartments!$A201,"")</f>
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="str">
         <f>IF(Compartments!$A202&lt;&gt;"",Compartments!$A202,"")</f>
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="str">
         <f>IF(Compartments!$A203&lt;&gt;"",Compartments!$A203,"")</f>
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="str">
         <f>IF(Compartments!$A204&lt;&gt;"",Compartments!$A204,"")</f>
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="str">
         <f>IF(Compartments!$A205&lt;&gt;"",Compartments!$A205,"")</f>
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="str">
         <f>IF(Compartments!$A206&lt;&gt;"",Compartments!$A206,"")</f>
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="str">
         <f>IF(Compartments!$A207&lt;&gt;"",Compartments!$A207,"")</f>
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="str">
         <f>IF(Compartments!$A208&lt;&gt;"",Compartments!$A208,"")</f>
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="str">
         <f>IF(Compartments!$A209&lt;&gt;"",Compartments!$A209,"")</f>
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="str">
         <f>IF(Compartments!$A210&lt;&gt;"",Compartments!$A210,"")</f>
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="str">
         <f>IF(Compartments!$A211&lt;&gt;"",Compartments!$A211,"")</f>
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="str">
         <f>IF(Compartments!$A212&lt;&gt;"",Compartments!$A212,"")</f>
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="str">
         <f>IF(Compartments!$A213&lt;&gt;"",Compartments!$A213,"")</f>
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="str">
         <f>IF(Compartments!$A214&lt;&gt;"",Compartments!$A214,"")</f>
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="str">
         <f>IF(Compartments!$A215&lt;&gt;"",Compartments!$A215,"")</f>
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="str">
         <f>IF(Compartments!$A216&lt;&gt;"",Compartments!$A216,"")</f>
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="str">
         <f>IF(Compartments!$A217&lt;&gt;"",Compartments!$A217,"")</f>
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="str">
         <f>IF(Compartments!$A218&lt;&gt;"",Compartments!$A218,"")</f>
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="str">
         <f>IF(Compartments!$A219&lt;&gt;"",Compartments!$A219,"")</f>
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="str">
         <f>IF(Compartments!$A220&lt;&gt;"",Compartments!$A220,"")</f>
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="str">
         <f>IF(Compartments!$A221&lt;&gt;"",Compartments!$A221,"")</f>
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="str">
         <f>IF(Compartments!$A222&lt;&gt;"",Compartments!$A222,"")</f>
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="str">
         <f>IF(Compartments!$A223&lt;&gt;"",Compartments!$A223,"")</f>
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="str">
         <f>IF(Compartments!$A224&lt;&gt;"",Compartments!$A224,"")</f>
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="str">
         <f>IF(Compartments!$A225&lt;&gt;"",Compartments!$A225,"")</f>
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="str">
         <f>IF(Compartments!$A226&lt;&gt;"",Compartments!$A226,"")</f>
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="str">
         <f>IF(Compartments!$A227&lt;&gt;"",Compartments!$A227,"")</f>
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="str">
         <f>IF(Compartments!$A228&lt;&gt;"",Compartments!$A228,"")</f>
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="str">
         <f>IF(Compartments!$A229&lt;&gt;"",Compartments!$A229,"")</f>
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="str">
         <f>IF(Compartments!$A230&lt;&gt;"",Compartments!$A230,"")</f>
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="str">
         <f>IF(Compartments!$A231&lt;&gt;"",Compartments!$A231,"")</f>
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="str">
         <f>IF(Compartments!$A232&lt;&gt;"",Compartments!$A232,"")</f>
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="str">
         <f>IF(Compartments!$A233&lt;&gt;"",Compartments!$A233,"")</f>
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="str">
         <f>IF(Compartments!$A234&lt;&gt;"",Compartments!$A234,"")</f>
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="str">
         <f>IF(Compartments!$A235&lt;&gt;"",Compartments!$A235,"")</f>
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="str">
         <f>IF(Compartments!$A236&lt;&gt;"",Compartments!$A236,"")</f>
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="str">
         <f>IF(Compartments!$A237&lt;&gt;"",Compartments!$A237,"")</f>
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="str">
         <f>IF(Compartments!$A238&lt;&gt;"",Compartments!$A238,"")</f>
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="str">
         <f>IF(Compartments!$A239&lt;&gt;"",Compartments!$A239,"")</f>
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="str">
         <f>IF(Compartments!$A240&lt;&gt;"",Compartments!$A240,"")</f>
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="str">
         <f>IF(Compartments!$A241&lt;&gt;"",Compartments!$A241,"")</f>
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="str">
         <f>IF(Compartments!$A242&lt;&gt;"",Compartments!$A242,"")</f>
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="str">
         <f>IF(Compartments!$A243&lt;&gt;"",Compartments!$A243,"")</f>
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="str">
         <f>IF(Compartments!$A244&lt;&gt;"",Compartments!$A244,"")</f>
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="str">
         <f>IF(Compartments!$A245&lt;&gt;"",Compartments!$A245,"")</f>
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="str">
         <f>IF(Compartments!$A246&lt;&gt;"",Compartments!$A246,"")</f>
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="str">
         <f>IF(Compartments!$A247&lt;&gt;"",Compartments!$A247,"")</f>
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="str">
         <f>IF(Compartments!$A248&lt;&gt;"",Compartments!$A248,"")</f>
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="str">
         <f>IF(Compartments!$A249&lt;&gt;"",Compartments!$A249,"")</f>
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="str">
         <f>IF(Compartments!$A250&lt;&gt;"",Compartments!$A250,"")</f>
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="str">
         <f>IF(Compartments!$A251&lt;&gt;"",Compartments!$A251,"")</f>
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="str">
         <f>IF(Compartments!$A252&lt;&gt;"",Compartments!$A252,"")</f>
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="str">
         <f>IF(Compartments!$A253&lt;&gt;"",Compartments!$A253,"")</f>
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="str">
         <f>IF(Compartments!$A254&lt;&gt;"",Compartments!$A254,"")</f>
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="str">
         <f>IF(Compartments!$A255&lt;&gt;"",Compartments!$A255,"")</f>
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="str">
         <f>IF(Compartments!$A256&lt;&gt;"",Compartments!$A256,"")</f>
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="str">
         <f>IF(Compartments!$A257&lt;&gt;"",Compartments!$A257,"")</f>
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="str">
         <f>IF(Compartments!$A258&lt;&gt;"",Compartments!$A258,"")</f>
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="str">
         <f>IF(Compartments!$A259&lt;&gt;"",Compartments!$A259,"")</f>
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="str">
         <f>IF(Compartments!$A260&lt;&gt;"",Compartments!$A260,"")</f>
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="str">
         <f>IF(Compartments!$A261&lt;&gt;"",Compartments!$A261,"")</f>
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="str">
         <f>IF(Compartments!$A262&lt;&gt;"",Compartments!$A262,"")</f>
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="str">
         <f>IF(Compartments!$A263&lt;&gt;"",Compartments!$A263,"")</f>
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="str">
         <f>IF(Compartments!$A264&lt;&gt;"",Compartments!$A264,"")</f>
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="str">
         <f>IF(Compartments!$A265&lt;&gt;"",Compartments!$A265,"")</f>
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="str">
         <f>IF(Compartments!$A266&lt;&gt;"",Compartments!$A266,"")</f>
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="str">
         <f>IF(Compartments!$A267&lt;&gt;"",Compartments!$A267,"")</f>
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="str">
         <f>IF(Compartments!$A268&lt;&gt;"",Compartments!$A268,"")</f>
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="str">
         <f>IF(Compartments!$A269&lt;&gt;"",Compartments!$A269,"")</f>
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="str">
         <f>IF(Compartments!$A270&lt;&gt;"",Compartments!$A270,"")</f>
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="str">
         <f>IF(Compartments!$A271&lt;&gt;"",Compartments!$A271,"")</f>
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="str">
         <f>IF(Compartments!$A272&lt;&gt;"",Compartments!$A272,"")</f>
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="str">
         <f>IF(Compartments!$A273&lt;&gt;"",Compartments!$A273,"")</f>
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="str">
         <f>IF(Compartments!$A274&lt;&gt;"",Compartments!$A274,"")</f>
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="str">
         <f>IF(Compartments!$A275&lt;&gt;"",Compartments!$A275,"")</f>
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="str">
         <f>IF(Compartments!$A276&lt;&gt;"",Compartments!$A276,"")</f>
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="str">
         <f>IF(Compartments!$A277&lt;&gt;"",Compartments!$A277,"")</f>
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="str">
         <f>IF(Compartments!$A278&lt;&gt;"",Compartments!$A278,"")</f>
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="str">
         <f>IF(Compartments!$A279&lt;&gt;"",Compartments!$A279,"")</f>
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="str">
         <f>IF(Compartments!$A280&lt;&gt;"",Compartments!$A280,"")</f>
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="str">
         <f>IF(Compartments!$A281&lt;&gt;"",Compartments!$A281,"")</f>
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="str">
         <f>IF(Compartments!$A282&lt;&gt;"",Compartments!$A282,"")</f>
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="str">
         <f>IF(Compartments!$A283&lt;&gt;"",Compartments!$A283,"")</f>
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="str">
         <f>IF(Compartments!$A284&lt;&gt;"",Compartments!$A284,"")</f>
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="str">
         <f>IF(Compartments!$A285&lt;&gt;"",Compartments!$A285,"")</f>
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="str">
         <f>IF(Compartments!$A286&lt;&gt;"",Compartments!$A286,"")</f>
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="str">
         <f>IF(Compartments!$A287&lt;&gt;"",Compartments!$A287,"")</f>
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="str">
         <f>IF(Compartments!$A288&lt;&gt;"",Compartments!$A288,"")</f>
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="str">
         <f>IF(Compartments!$A289&lt;&gt;"",Compartments!$A289,"")</f>
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="str">
         <f>IF(Compartments!$A290&lt;&gt;"",Compartments!$A290,"")</f>
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="str">
         <f>IF(Compartments!$A291&lt;&gt;"",Compartments!$A291,"")</f>
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="str">
         <f>IF(Compartments!$A292&lt;&gt;"",Compartments!$A292,"")</f>
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="str">
         <f>IF(Compartments!$A293&lt;&gt;"",Compartments!$A293,"")</f>
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="str">
         <f>IF(Compartments!$A294&lt;&gt;"",Compartments!$A294,"")</f>
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="str">
         <f>IF(Compartments!$A295&lt;&gt;"",Compartments!$A295,"")</f>
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="str">
         <f>IF(Compartments!$A296&lt;&gt;"",Compartments!$A296,"")</f>
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="str">
         <f>IF(Compartments!$A297&lt;&gt;"",Compartments!$A297,"")</f>
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="str">
         <f>IF(Compartments!$A298&lt;&gt;"",Compartments!$A298,"")</f>
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="str">
         <f>IF(Compartments!$A299&lt;&gt;"",Compartments!$A299,"")</f>
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="str">
         <f>IF(Compartments!$A300&lt;&gt;"",Compartments!$A300,"")</f>
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="str">
         <f>IF(Compartments!$A301&lt;&gt;"",Compartments!$A301,"")</f>
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="str">
         <f>IF(Compartments!$A302&lt;&gt;"",Compartments!$A302,"")</f>
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="str">
         <f>IF(Compartments!$A303&lt;&gt;"",Compartments!$A303,"")</f>
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="str">
         <f>IF(Compartments!$A304&lt;&gt;"",Compartments!$A304,"")</f>
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="str">
         <f>IF(Compartments!$A305&lt;&gt;"",Compartments!$A305,"")</f>
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="str">
         <f>IF(Compartments!$A306&lt;&gt;"",Compartments!$A306,"")</f>
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="str">
         <f>IF(Compartments!$A307&lt;&gt;"",Compartments!$A307,"")</f>
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="str">
         <f>IF(Compartments!$A308&lt;&gt;"",Compartments!$A308,"")</f>
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="str">
         <f>IF(Compartments!$A309&lt;&gt;"",Compartments!$A309,"")</f>
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="str">
         <f>IF(Compartments!$A310&lt;&gt;"",Compartments!$A310,"")</f>
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="str">
         <f>IF(Compartments!$A311&lt;&gt;"",Compartments!$A311,"")</f>
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="str">
         <f>IF(Compartments!$A312&lt;&gt;"",Compartments!$A312,"")</f>
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="str">
         <f>IF(Compartments!$A313&lt;&gt;"",Compartments!$A313,"")</f>
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="str">
         <f>IF(Compartments!$A314&lt;&gt;"",Compartments!$A314,"")</f>
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="str">
         <f>IF(Compartments!$A315&lt;&gt;"",Compartments!$A315,"")</f>
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="str">
         <f>IF(Compartments!$A316&lt;&gt;"",Compartments!$A316,"")</f>
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="str">
         <f>IF(Compartments!$A317&lt;&gt;"",Compartments!$A317,"")</f>
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="str">
         <f>IF(Compartments!$A318&lt;&gt;"",Compartments!$A318,"")</f>
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="str">
         <f>IF(Compartments!$A319&lt;&gt;"",Compartments!$A319,"")</f>
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="str">
         <f>IF(Compartments!$A320&lt;&gt;"",Compartments!$A320,"")</f>
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="str">
         <f>IF(Compartments!$A321&lt;&gt;"",Compartments!$A321,"")</f>
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="str">
         <f>IF(Compartments!$A322&lt;&gt;"",Compartments!$A322,"")</f>
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="str">
         <f>IF(Compartments!$A323&lt;&gt;"",Compartments!$A323,"")</f>
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="str">
         <f>IF(Compartments!$A324&lt;&gt;"",Compartments!$A324,"")</f>
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="str">
         <f>IF(Compartments!$A325&lt;&gt;"",Compartments!$A325,"")</f>
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="str">
         <f>IF(Compartments!$A326&lt;&gt;"",Compartments!$A326,"")</f>
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="str">
         <f>IF(Compartments!$A327&lt;&gt;"",Compartments!$A327,"")</f>
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="str">
         <f>IF(Compartments!$A328&lt;&gt;"",Compartments!$A328,"")</f>
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="str">
         <f>IF(Compartments!$A329&lt;&gt;"",Compartments!$A329,"")</f>
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="str">
         <f>IF(Compartments!$A330&lt;&gt;"",Compartments!$A330,"")</f>
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="str">
         <f>IF(Compartments!$A331&lt;&gt;"",Compartments!$A331,"")</f>
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="str">
         <f>IF(Compartments!$A332&lt;&gt;"",Compartments!$A332,"")</f>
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="str">
         <f>IF(Compartments!$A333&lt;&gt;"",Compartments!$A333,"")</f>
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="str">
         <f>IF(Compartments!$A334&lt;&gt;"",Compartments!$A334,"")</f>
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="str">
         <f>IF(Compartments!$A335&lt;&gt;"",Compartments!$A335,"")</f>
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="str">
         <f>IF(Compartments!$A336&lt;&gt;"",Compartments!$A336,"")</f>
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="str">
         <f>IF(Compartments!$A337&lt;&gt;"",Compartments!$A337,"")</f>
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="str">
         <f>IF(Compartments!$A338&lt;&gt;"",Compartments!$A338,"")</f>
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="str">
         <f>IF(Compartments!$A339&lt;&gt;"",Compartments!$A339,"")</f>
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="str">
         <f>IF(Compartments!$A340&lt;&gt;"",Compartments!$A340,"")</f>
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="str">
         <f>IF(Compartments!$A341&lt;&gt;"",Compartments!$A341,"")</f>
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="str">
         <f>IF(Compartments!$A342&lt;&gt;"",Compartments!$A342,"")</f>
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="str">
         <f>IF(Compartments!$A343&lt;&gt;"",Compartments!$A343,"")</f>
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="str">
         <f>IF(Compartments!$A344&lt;&gt;"",Compartments!$A344,"")</f>
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="str">
         <f>IF(Compartments!$A345&lt;&gt;"",Compartments!$A345,"")</f>
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="str">
         <f>IF(Compartments!$A346&lt;&gt;"",Compartments!$A346,"")</f>
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="str">
         <f>IF(Compartments!$A347&lt;&gt;"",Compartments!$A347,"")</f>
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="str">
         <f>IF(Compartments!$A348&lt;&gt;"",Compartments!$A348,"")</f>
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="str">
         <f>IF(Compartments!$A349&lt;&gt;"",Compartments!$A349,"")</f>
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="str">
         <f>IF(Compartments!$A350&lt;&gt;"",Compartments!$A350,"")</f>
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="str">
         <f>IF(Compartments!$A351&lt;&gt;"",Compartments!$A351,"")</f>
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="str">
         <f>IF(Compartments!$A352&lt;&gt;"",Compartments!$A352,"")</f>
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="str">
         <f>IF(Compartments!$A353&lt;&gt;"",Compartments!$A353,"")</f>
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="str">
         <f>IF(Compartments!$A354&lt;&gt;"",Compartments!$A354,"")</f>
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="str">
         <f>IF(Compartments!$A355&lt;&gt;"",Compartments!$A355,"")</f>
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="str">
         <f>IF(Compartments!$A356&lt;&gt;"",Compartments!$A356,"")</f>
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="str">
         <f>IF(Compartments!$A357&lt;&gt;"",Compartments!$A357,"")</f>
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="str">
         <f>IF(Compartments!$A358&lt;&gt;"",Compartments!$A358,"")</f>
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="str">
         <f>IF(Compartments!$A359&lt;&gt;"",Compartments!$A359,"")</f>
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="str">
         <f>IF(Compartments!$A360&lt;&gt;"",Compartments!$A360,"")</f>
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="str">
         <f>IF(Compartments!$A361&lt;&gt;"",Compartments!$A361,"")</f>
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="str">
         <f>IF(Compartments!$A362&lt;&gt;"",Compartments!$A362,"")</f>
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="str">
         <f>IF(Compartments!$A363&lt;&gt;"",Compartments!$A363,"")</f>
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="str">
         <f>IF(Compartments!$A364&lt;&gt;"",Compartments!$A364,"")</f>
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="str">
         <f>IF(Compartments!$A365&lt;&gt;"",Compartments!$A365,"")</f>
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="str">
         <f>IF(Compartments!$A366&lt;&gt;"",Compartments!$A366,"")</f>
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="str">
         <f>IF(Compartments!$A367&lt;&gt;"",Compartments!$A367,"")</f>
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="str">
         <f>IF(Compartments!$A368&lt;&gt;"",Compartments!$A368,"")</f>
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="str">
         <f>IF(Compartments!$A369&lt;&gt;"",Compartments!$A369,"")</f>
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="str">
         <f>IF(Compartments!$A370&lt;&gt;"",Compartments!$A370,"")</f>
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="str">
         <f>IF(Compartments!$A371&lt;&gt;"",Compartments!$A371,"")</f>
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="str">
         <f>IF(Compartments!$A372&lt;&gt;"",Compartments!$A372,"")</f>
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="str">
         <f>IF(Compartments!$A373&lt;&gt;"",Compartments!$A373,"")</f>
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="str">
         <f>IF(Compartments!$A374&lt;&gt;"",Compartments!$A374,"")</f>
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="str">
         <f>IF(Compartments!$A375&lt;&gt;"",Compartments!$A375,"")</f>
         <v/>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="str">
         <f>IF(Compartments!$A376&lt;&gt;"",Compartments!$A376,"")</f>
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="str">
         <f>IF(Compartments!$A377&lt;&gt;"",Compartments!$A377,"")</f>
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="str">
         <f>IF(Compartments!$A378&lt;&gt;"",Compartments!$A378,"")</f>
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="str">
         <f>IF(Compartments!$A379&lt;&gt;"",Compartments!$A379,"")</f>
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="str">
         <f>IF(Compartments!$A380&lt;&gt;"",Compartments!$A380,"")</f>
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="str">
         <f>IF(Compartments!$A381&lt;&gt;"",Compartments!$A381,"")</f>
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="str">
         <f>IF(Compartments!$A382&lt;&gt;"",Compartments!$A382,"")</f>
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="str">
         <f>IF(Compartments!$A383&lt;&gt;"",Compartments!$A383,"")</f>
         <v/>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="str">
         <f>IF(Compartments!$A384&lt;&gt;"",Compartments!$A384,"")</f>
         <v/>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="str">
         <f>IF(Compartments!$A385&lt;&gt;"",Compartments!$A385,"")</f>
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="str">
         <f>IF(Compartments!$A386&lt;&gt;"",Compartments!$A386,"")</f>
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="str">
         <f>IF(Compartments!$A387&lt;&gt;"",Compartments!$A387,"")</f>
         <v/>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="str">
         <f>IF(Compartments!$A388&lt;&gt;"",Compartments!$A388,"")</f>
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="str">
         <f>IF(Compartments!$A389&lt;&gt;"",Compartments!$A389,"")</f>
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="str">
         <f>IF(Compartments!$A390&lt;&gt;"",Compartments!$A390,"")</f>
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="str">
         <f>IF(Compartments!$A391&lt;&gt;"",Compartments!$A391,"")</f>
         <v/>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="str">
         <f>IF(Compartments!$A392&lt;&gt;"",Compartments!$A392,"")</f>
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="str">
         <f>IF(Compartments!$A393&lt;&gt;"",Compartments!$A393,"")</f>
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="str">
         <f>IF(Compartments!$A394&lt;&gt;"",Compartments!$A394,"")</f>
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="str">
         <f>IF(Compartments!$A395&lt;&gt;"",Compartments!$A395,"")</f>
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="str">
         <f>IF(Compartments!$A396&lt;&gt;"",Compartments!$A396,"")</f>
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="str">
         <f>IF(Compartments!$A397&lt;&gt;"",Compartments!$A397,"")</f>
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="str">
         <f>IF(Compartments!$A398&lt;&gt;"",Compartments!$A398,"")</f>
         <v/>
@@ -8046,27 +8049,28 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.68359375" customWidth="1"/>
-    <col min="2" max="2" width="16.83984375" customWidth="1"/>
-    <col min="3" max="3" width="11.68359375" customWidth="1"/>
-    <col min="4" max="4" width="12.68359375" customWidth="1"/>
-    <col min="5" max="5" width="14.68359375" customWidth="1"/>
-    <col min="6" max="6" width="13.68359375" customWidth="1"/>
-    <col min="7" max="7" width="14.68359375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.68359375" customWidth="1"/>
-    <col min="9" max="9" width="15.68359375" customWidth="1"/>
-    <col min="10" max="11" width="14.68359375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8100,8 +8104,11 @@
       <c r="K1" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -8117,7 +8124,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -8132,7 +8139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND(I2&lt;&gt;"",NOT(H2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8182,30 +8189,31 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.68359375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.83984375" customWidth="1"/>
-    <col min="3" max="3" width="7.68359375" customWidth="1"/>
-    <col min="4" max="4" width="9.83984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.68359375" customWidth="1"/>
-    <col min="8" max="8" width="8.68359375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.68359375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.68359375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.68359375" customWidth="1"/>
-    <col min="12" max="12" width="15.68359375" customWidth="1"/>
-    <col min="14" max="14" width="14.68359375" customWidth="1"/>
-    <col min="15" max="15" width="10.68359375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="11.83984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8254,8 +8262,11 @@
       <c r="P1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
@@ -8271,7 +8282,7 @@
       <c r="L2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -8286,7 +8297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K1048576">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(L2&lt;&gt;"",NOT(K2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8356,16 +8367,16 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83984375" customWidth="1"/>
-    <col min="3" max="3" width="14.68359375" customWidth="1"/>
-    <col min="4" max="4" width="20.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8382,7 +8393,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -8427,13 +8438,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.83984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -8441,7 +8452,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -8449,7 +8460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
